--- a/teaching/traditional_assets/database/data/turkey/turkey_telecom_services.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_telecom_services.xlsx
@@ -650,10 +650,10 @@
         <v>0.2131950989632422</v>
       </c>
       <c r="X2">
-        <v>0.09597600568673806</v>
+        <v>0.09349748219170975</v>
       </c>
       <c r="Y2">
-        <v>0.1172190932765042</v>
+        <v>0.1196976167715325</v>
       </c>
       <c r="Z2">
         <v>0.7607984578615913</v>
@@ -662,10 +662,10 @@
         <v>0.1642470930066062</v>
       </c>
       <c r="AB2">
-        <v>0.08735871364850786</v>
+        <v>0.08371525739975043</v>
       </c>
       <c r="AC2">
-        <v>0.07688837935809831</v>
+        <v>0.08053183560685574</v>
       </c>
       <c r="AD2">
         <v>3286.7</v>
@@ -784,10 +784,10 @@
         <v>0.2131950989632422</v>
       </c>
       <c r="X3">
-        <v>0.09597600568673806</v>
+        <v>0.09349748219170975</v>
       </c>
       <c r="Y3">
-        <v>0.1172190932765042</v>
+        <v>0.1196976167715325</v>
       </c>
       <c r="Z3">
         <v>0.7607984578615913</v>
@@ -796,10 +796,10 @@
         <v>0.1642470930066062</v>
       </c>
       <c r="AB3">
-        <v>0.08735871364850786</v>
+        <v>0.08371525739975043</v>
       </c>
       <c r="AC3">
-        <v>0.07688837935809831</v>
+        <v>0.08053183560685574</v>
       </c>
       <c r="AD3">
         <v>3286.7</v>
@@ -1105,13 +1105,13 @@
         <v>4024.8</v>
       </c>
       <c r="H2">
-        <v>10354.6778266738</v>
+        <v>10260.6454148455</v>
       </c>
       <c r="I2">
         <v>6601</v>
       </c>
       <c r="J2">
-        <v>9644.17782667376</v>
+        <v>9550.14541484545</v>
       </c>
       <c r="K2">
         <v>3286.7</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0873587136485079</v>
+        <v>0.0837152573997504</v>
       </c>
       <c r="N2">
-        <v>0.0647786768020136</v>
+        <v>0.06073535441169</v>
       </c>
       <c r="O2">
-        <v>0.0768062211802361</v>
+        <v>0.07173622118023611</v>
       </c>
       <c r="P2">
-        <v>0.0556392831802361</v>
+        <v>0.050569283180236</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.0959760056867381</v>
+        <v>0.09349748219170979</v>
       </c>
       <c r="T2">
-        <v>0.0647786768020136</v>
+        <v>0.06073535441169</v>
       </c>
       <c r="U2">
         <v>0.837807605202433</v>
@@ -1160,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.04863241433363596</v>
+        <v>0.04863241433363595</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>4024.8</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.09846951433363596</v>
+        <v>0.09196951433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06477867680201363</v>
+        <v>0.06073535441169005</v>
       </c>
       <c r="C2">
-        <v>10354.67782667376</v>
+        <v>10260.64541484545</v>
       </c>
       <c r="D2">
-        <v>9644.177826673762</v>
+        <v>9550.145414845454</v>
       </c>
       <c r="E2">
         <v>-3286.7</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06477867680201363</v>
+        <v>0.06073535441169005</v>
       </c>
       <c r="T2">
         <v>0.5118078353492552</v>
       </c>
       <c r="U2">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.06506931654485155</v>
+        <v>0.06103488946378669</v>
       </c>
       <c r="C3">
-        <v>10224.6718129558</v>
+        <v>10132.23691109943</v>
       </c>
       <c r="D3">
-        <v>9587.286812955801</v>
+        <v>9494.851911099426</v>
       </c>
       <c r="E3">
         <v>-3213.585</v>
@@ -1482,37 +1482,37 @@
         <v>943.9</v>
       </c>
       <c r="M3">
-        <v>5.215469474003793</v>
+        <v>4.740221974003792</v>
       </c>
       <c r="N3">
-        <v>938.6845305259961</v>
+        <v>939.1597780259962</v>
       </c>
       <c r="O3">
-        <v>206.5105967157191</v>
+        <v>206.6151511657192</v>
       </c>
       <c r="P3">
-        <v>732.173933810277</v>
+        <v>732.544626860277</v>
       </c>
       <c r="Q3">
-        <v>1236.173933810277</v>
+        <v>1236.544626860277</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.0651645694071204</v>
+        <v>0.06114060265857003</v>
       </c>
       <c r="T3">
         <v>0.5158402607186736</v>
       </c>
       <c r="U3">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>180.980831103473</v>
+        <v>199.125696048943</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.06535995628768948</v>
+        <v>0.06133442451588333</v>
       </c>
       <c r="C4">
-        <v>10095.33306332907</v>
+        <v>10004.46499909739</v>
       </c>
       <c r="D4">
-        <v>9531.063063329068</v>
+        <v>9440.194999097394</v>
       </c>
       <c r="E4">
         <v>-3140.47</v>
@@ -1564,37 +1564,37 @@
         <v>943.9</v>
       </c>
       <c r="M4">
-        <v>10.43093894800759</v>
+        <v>9.480443948007585</v>
       </c>
       <c r="N4">
-        <v>933.4690610519924</v>
+        <v>934.4195560519923</v>
       </c>
       <c r="O4">
-        <v>205.3631934314383</v>
+        <v>205.5723023314383</v>
       </c>
       <c r="P4">
-        <v>728.1058676205541</v>
+        <v>728.847253720554</v>
       </c>
       <c r="Q4">
-        <v>1232.105867620554</v>
+        <v>1232.847253720554</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.06555833737151506</v>
+        <v>0.06155412127783531</v>
       </c>
       <c r="T4">
         <v>0.5199549804833862</v>
       </c>
       <c r="U4">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>90.49041555173653</v>
+        <v>99.56284802447152</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.06565059603052742</v>
+        <v>0.06163395956797997</v>
       </c>
       <c r="C5">
-        <v>9966.649906912207</v>
+        <v>9877.318748181169</v>
       </c>
       <c r="D5">
-        <v>9475.494906912207</v>
+        <v>9386.163748181169</v>
       </c>
       <c r="E5">
         <v>-3067.355</v>
@@ -1646,37 +1646,37 @@
         <v>943.9</v>
       </c>
       <c r="M5">
-        <v>15.64640842201138</v>
+        <v>14.22066592201138</v>
       </c>
       <c r="N5">
-        <v>928.2535915779886</v>
+        <v>929.6793340779886</v>
       </c>
       <c r="O5">
-        <v>204.2157901471575</v>
+        <v>204.5294534971575</v>
       </c>
       <c r="P5">
-        <v>724.0378014308311</v>
+        <v>725.1498805808311</v>
       </c>
       <c r="Q5">
-        <v>1228.037801430831</v>
+        <v>1229.149880580831</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.06596022426301065</v>
+        <v>0.06197616605419885</v>
       </c>
       <c r="T5">
         <v>0.5241545398308765</v>
       </c>
       <c r="U5">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>60.32694370115768</v>
+        <v>66.37523201631434</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.06594123577336533</v>
+        <v>0.06193349462007661</v>
       </c>
       <c r="C6">
-        <v>9838.610943421267</v>
+        <v>9750.787476516271</v>
       </c>
       <c r="D6">
-        <v>9420.570943421266</v>
+        <v>9332.74747651627</v>
       </c>
       <c r="E6">
         <v>-2994.24</v>
@@ -1728,37 +1728,37 @@
         <v>943.9</v>
       </c>
       <c r="M6">
-        <v>20.86187789601517</v>
+        <v>18.96088789601517</v>
       </c>
       <c r="N6">
-        <v>923.0381221039848</v>
+        <v>924.9391121039848</v>
       </c>
       <c r="O6">
-        <v>203.0683868628767</v>
+        <v>203.4866046628767</v>
       </c>
       <c r="P6">
-        <v>719.9697352411082</v>
+        <v>721.4525074411082</v>
       </c>
       <c r="Q6">
-        <v>1223.969735241108</v>
+        <v>1225.452507441108</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.06637048379807906</v>
+        <v>0.06240700343006997</v>
       </c>
       <c r="T6">
         <v>0.528441589998106</v>
       </c>
       <c r="U6">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>45.24520777586827</v>
+        <v>49.78142401223576</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.06623187551620327</v>
+        <v>0.06223302967217326</v>
       </c>
       <c r="C7">
-        <v>9711.20503537239</v>
+        <v>9624.86074405175</v>
       </c>
       <c r="D7">
-        <v>9366.280035372391</v>
+        <v>9279.935744051751</v>
       </c>
       <c r="E7">
         <v>-2921.125</v>
@@ -1810,37 +1810,37 @@
         <v>943.9</v>
       </c>
       <c r="M7">
-        <v>26.07734737001897</v>
+        <v>23.70110987001897</v>
       </c>
       <c r="N7">
-        <v>917.822652629981</v>
+        <v>920.198890129981</v>
       </c>
       <c r="O7">
-        <v>201.9209835785958</v>
+        <v>202.4437558285958</v>
       </c>
       <c r="P7">
-        <v>715.9016690513852</v>
+        <v>717.7551343013852</v>
       </c>
       <c r="Q7">
-        <v>1219.901669051385</v>
+        <v>1221.755134301385</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.06678938037599103</v>
+        <v>0.06284691106648575</v>
       </c>
       <c r="T7">
         <v>0.5328188938530668</v>
       </c>
       <c r="U7">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>36.19616622069461</v>
+        <v>39.8251392097886</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.0665225152590412</v>
+        <v>0.06253256472426989</v>
       </c>
       <c r="C8">
-        <v>9584.421300552633</v>
+        <v>9499.528345717745</v>
       </c>
       <c r="D8">
-        <v>9312.611300552633</v>
+        <v>9227.718345717745</v>
       </c>
       <c r="E8">
         <v>-2848.01</v>
@@ -1892,37 +1892,37 @@
         <v>943.9</v>
       </c>
       <c r="M8">
-        <v>31.29281684402276</v>
+        <v>28.44133184402276</v>
       </c>
       <c r="N8">
-        <v>912.6071831559772</v>
+        <v>915.4586681559772</v>
       </c>
       <c r="O8">
-        <v>200.773580294315</v>
+        <v>201.400906994315</v>
       </c>
       <c r="P8">
-        <v>711.8336028616623</v>
+        <v>714.0577611616623</v>
       </c>
       <c r="Q8">
-        <v>1215.833602861662</v>
+        <v>1218.057761161662</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.06721718964705004</v>
+        <v>0.06329617843984653</v>
       </c>
       <c r="T8">
         <v>0.5372893318326011</v>
       </c>
       <c r="U8">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>30.16347185057884</v>
+        <v>33.18761600815717</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.06681315500187913</v>
+        <v>0.06283209977636654</v>
       </c>
       <c r="C9">
-        <v>9458.249104748087</v>
+        <v>9374.780304851336</v>
       </c>
       <c r="D9">
-        <v>9259.554104748087</v>
+        <v>9176.085304851336</v>
       </c>
       <c r="E9">
         <v>-2774.895</v>
@@ -1974,37 +1974,37 @@
         <v>943.9</v>
       </c>
       <c r="M9">
-        <v>36.50828631802656</v>
+        <v>33.18155381802656</v>
       </c>
       <c r="N9">
-        <v>907.3917136819734</v>
+        <v>910.7184461819734</v>
       </c>
       <c r="O9">
-        <v>199.6261770100342</v>
+        <v>200.3580581600341</v>
       </c>
       <c r="P9">
-        <v>707.7655366719393</v>
+        <v>710.3603880219392</v>
       </c>
       <c r="Q9">
-        <v>1211.76553667194</v>
+        <v>1214.360388021939</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.06765419911748669</v>
+        <v>0.06375510747715056</v>
       </c>
       <c r="T9">
         <v>0.5418559082633083</v>
       </c>
       <c r="U9">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>25.85440444335329</v>
+        <v>28.44652800699185</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.06710379474471706</v>
+        <v>0.06313163482846319</v>
       </c>
       <c r="C10">
-        <v>9332.678054719256</v>
+        <v>9250.60686684197</v>
       </c>
       <c r="D10">
-        <v>9207.098054719256</v>
+        <v>9125.02686684197</v>
       </c>
       <c r="E10">
         <v>-2701.78</v>
@@ -2056,37 +2056,37 @@
         <v>943.9</v>
       </c>
       <c r="M10">
-        <v>41.72375579203035</v>
+        <v>37.92177579203034</v>
       </c>
       <c r="N10">
-        <v>902.1762442079696</v>
+        <v>905.9782242079697</v>
       </c>
       <c r="O10">
-        <v>198.4787737257533</v>
+        <v>199.3152093257533</v>
       </c>
       <c r="P10">
-        <v>703.6974704822163</v>
+        <v>706.6630148822163</v>
       </c>
       <c r="Q10">
-        <v>1207.697470482216</v>
+        <v>1210.663014882216</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.06810070879380237</v>
+        <v>0.06422401323265685</v>
       </c>
       <c r="T10">
         <v>0.546521758094683</v>
       </c>
       <c r="U10">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>22.62260388793413</v>
+        <v>24.89071200611788</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.067394434487555</v>
+        <v>0.06343116988055983</v>
       </c>
       <c r="C11">
-        <v>9207.697991413781</v>
+        <v>9126.998492987801</v>
       </c>
       <c r="D11">
-        <v>9155.232991413781</v>
+        <v>9074.533492987801</v>
       </c>
       <c r="E11">
         <v>-2628.665</v>
@@ -2138,37 +2138,37 @@
         <v>943.9</v>
       </c>
       <c r="M11">
-        <v>46.93922526603414</v>
+        <v>42.66199776603413</v>
       </c>
       <c r="N11">
-        <v>896.9607747339659</v>
+        <v>901.2380022339659</v>
       </c>
       <c r="O11">
-        <v>197.3313704414725</v>
+        <v>198.2723604914725</v>
       </c>
       <c r="P11">
-        <v>699.6294042924934</v>
+        <v>702.9656417424934</v>
       </c>
       <c r="Q11">
-        <v>1203.629404292494</v>
+        <v>1206.965641742494</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.06855703186959752</v>
+        <v>0.06470322460916328</v>
       </c>
       <c r="T11">
         <v>0.5512901540761977</v>
       </c>
       <c r="U11">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>20.10898123371923</v>
+        <v>22.12507733877145</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.06768507423039292</v>
+        <v>0.06373070493265647</v>
       </c>
       <c r="C12">
-        <v>9083.298983407347</v>
+        <v>9003.945854554902</v>
       </c>
       <c r="D12">
-        <v>9103.948983407347</v>
+        <v>9024.595854554902</v>
       </c>
       <c r="E12">
         <v>-2555.55</v>
@@ -2220,37 +2220,37 @@
         <v>943.9</v>
       </c>
       <c r="M12">
-        <v>52.15469474003794</v>
+        <v>47.40221974003794</v>
       </c>
       <c r="N12">
-        <v>891.745305259962</v>
+        <v>896.497780259962</v>
       </c>
       <c r="O12">
-        <v>196.1839671571917</v>
+        <v>197.2295116571916</v>
       </c>
       <c r="P12">
-        <v>695.5613381027704</v>
+        <v>699.2682686027704</v>
       </c>
       <c r="Q12">
-        <v>1199.561338102771</v>
+        <v>1203.268268602771</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.06902349545818813</v>
+        <v>0.06519308512736985</v>
       </c>
       <c r="T12">
         <v>0.5561645144128573</v>
       </c>
       <c r="U12">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>18.0980831103473</v>
+        <v>19.9125696048943</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.06797571397323088</v>
+        <v>0.06403023998475312</v>
       </c>
       <c r="C13">
-        <v>8959.471320563771</v>
+        <v>8881.439827031574</v>
       </c>
       <c r="D13">
-        <v>9053.23632056377</v>
+        <v>8975.204827031574</v>
       </c>
       <c r="E13">
         <v>-2482.435</v>
@@ -2302,37 +2302,37 @@
         <v>943.9</v>
       </c>
       <c r="M13">
-        <v>57.37016421404173</v>
+        <v>52.14244171404172</v>
       </c>
       <c r="N13">
-        <v>886.5298357859582</v>
+        <v>891.7575582859582</v>
       </c>
       <c r="O13">
-        <v>195.0365638729108</v>
+        <v>196.1866628229108</v>
       </c>
       <c r="P13">
-        <v>691.4932719130474</v>
+        <v>695.5708954630475</v>
       </c>
       <c r="Q13">
-        <v>1195.493271913047</v>
+        <v>1199.570895463048</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.06950044137461225</v>
+        <v>0.06569395374710915</v>
       </c>
       <c r="T13">
         <v>0.5611484109368576</v>
       </c>
       <c r="U13">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>16.45280282758846</v>
+        <v>18.10233600444937</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.06826635371606879</v>
+        <v>0.06432977503684975</v>
       </c>
       <c r="C14">
-        <v>8836.205507905835</v>
+        <v>8759.471484570286</v>
       </c>
       <c r="D14">
-        <v>9003.085507905835</v>
+        <v>8926.351484570285</v>
       </c>
       <c r="E14">
         <v>-2409.32</v>
@@ -2384,37 +2384,37 @@
         <v>943.9</v>
       </c>
       <c r="M14">
-        <v>62.58563368804552</v>
+        <v>56.88266368804552</v>
       </c>
       <c r="N14">
-        <v>881.3143663119545</v>
+        <v>887.0173363119544</v>
       </c>
       <c r="O14">
-        <v>193.88916058863</v>
+        <v>195.14381398863</v>
       </c>
       <c r="P14">
-        <v>687.4252057233246</v>
+        <v>691.8735223233244</v>
       </c>
       <c r="Q14">
-        <v>1191.425205723325</v>
+        <v>1195.873522323325</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.06998822697095508</v>
+        <v>0.0662062057445698</v>
       </c>
       <c r="T14">
         <v>0.5662455778364033</v>
       </c>
       <c r="U14">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>15.08173592528942</v>
+        <v>16.59380800407858</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.0685569934589067</v>
+        <v>0.06462931008894639</v>
       </c>
       <c r="C15">
-        <v>8713.492259688684</v>
+        <v>8638.032094610146</v>
       </c>
       <c r="D15">
-        <v>8953.487259688685</v>
+        <v>8878.027094610146</v>
       </c>
       <c r="E15">
         <v>-2336.205</v>
@@ -2466,37 +2466,37 @@
         <v>943.9</v>
       </c>
       <c r="M15">
-        <v>67.80110316204932</v>
+        <v>61.62288566204931</v>
       </c>
       <c r="N15">
-        <v>876.0988968379506</v>
+        <v>882.2771143379507</v>
       </c>
       <c r="O15">
-        <v>192.7417573043491</v>
+        <v>194.1009651543492</v>
       </c>
       <c r="P15">
-        <v>683.3571395336015</v>
+        <v>688.1761491836015</v>
       </c>
       <c r="Q15">
-        <v>1187.357139533602</v>
+        <v>1192.176149183602</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.07048722602928278</v>
+        <v>0.06673023365001805</v>
       </c>
       <c r="T15">
         <v>0.5714599209865132</v>
       </c>
       <c r="U15">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>13.92160239257485</v>
+        <v>15.31736123453408</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.06884763320174465</v>
+        <v>0.06492884514104302</v>
       </c>
       <c r="C16">
-        <v>8591.322493668073</v>
+        <v>8517.113112673132</v>
       </c>
       <c r="D16">
-        <v>8904.432493668073</v>
+        <v>8830.223112673133</v>
       </c>
       <c r="E16">
         <v>-2263.09</v>
@@ -2548,37 +2548,37 @@
         <v>943.9</v>
       </c>
       <c r="M16">
-        <v>73.01657263605311</v>
+        <v>66.36310763605312</v>
       </c>
       <c r="N16">
-        <v>870.8834273639469</v>
+        <v>877.5368923639469</v>
       </c>
       <c r="O16">
-        <v>191.5943540200683</v>
+        <v>193.0581163200683</v>
       </c>
       <c r="P16">
-        <v>679.2890733438786</v>
+        <v>684.4787760438786</v>
       </c>
       <c r="Q16">
-        <v>1183.289073343879</v>
+        <v>1188.478776043879</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.07099782971687396</v>
+        <v>0.06726644825094184</v>
       </c>
       <c r="T16">
         <v>0.5767955279308118</v>
       </c>
       <c r="U16">
-        <v>0.07133241433363596</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.05563928318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>12.92720222167665</v>
+        <v>14.22326400349593</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.06932547294458256</v>
+        <v>0.06522838019313967</v>
       </c>
       <c r="C17">
-        <v>8438.714655981292</v>
+        <v>8396.706177327505</v>
       </c>
       <c r="D17">
-        <v>8824.939655981292</v>
+        <v>8782.931177327506</v>
       </c>
       <c r="E17">
         <v>-2189.975</v>
@@ -2630,45 +2630,45 @@
         <v>943.9</v>
       </c>
       <c r="M17">
-        <v>79.98680211005689</v>
+        <v>71.10332961005689</v>
       </c>
       <c r="N17">
-        <v>863.9131978899431</v>
+        <v>872.7966703899431</v>
       </c>
       <c r="O17">
-        <v>190.0609035357875</v>
+        <v>192.0152674857875</v>
       </c>
       <c r="P17">
-        <v>673.8522943541557</v>
+        <v>680.7814029041556</v>
       </c>
       <c r="Q17">
-        <v>1177.852294354156</v>
+        <v>1184.781402904156</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.07152044760887902</v>
+        <v>0.06781527966600502</v>
       </c>
       <c r="T17">
         <v>0.5822566785679174</v>
       </c>
       <c r="U17">
-        <v>0.07293241433363595</v>
+        <v>0.06483241433363596</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.05688728318023605</v>
+        <v>0.05056928318023605</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>11.80069680372084</v>
+        <v>13.27504640326287</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.06962859268742051</v>
+        <v>0.06572759524523632</v>
       </c>
       <c r="C18">
-        <v>8315.904627641705</v>
+        <v>8245.888566996598</v>
       </c>
       <c r="D18">
-        <v>8775.244627641705</v>
+        <v>8705.228566996599</v>
       </c>
       <c r="E18">
         <v>-2116.86</v>
@@ -2712,37 +2712,37 @@
         <v>943.9</v>
       </c>
       <c r="M18">
-        <v>85.31925558406068</v>
+        <v>77.71529558406067</v>
       </c>
       <c r="N18">
-        <v>858.5807444159393</v>
+        <v>866.1847044159393</v>
       </c>
       <c r="O18">
-        <v>188.8877637715067</v>
+        <v>190.5606349715067</v>
       </c>
       <c r="P18">
-        <v>669.6929806444326</v>
+        <v>675.6240694444327</v>
       </c>
       <c r="Q18">
-        <v>1173.692980644433</v>
+        <v>1179.624069444433</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.07205550878402708</v>
+        <v>0.06837717849571257</v>
       </c>
       <c r="T18">
         <v>0.5878478566011446</v>
       </c>
       <c r="U18">
-        <v>0.07293241433363595</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.05688728318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>11.06315325348829</v>
+        <v>12.1456142308438</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.06993171243025845</v>
+        <v>0.06603961029733296</v>
       </c>
       <c r="C19">
-        <v>8193.651150851456</v>
+        <v>8124.902911371521</v>
       </c>
       <c r="D19">
-        <v>8726.106150851456</v>
+        <v>8657.35791137152</v>
       </c>
       <c r="E19">
         <v>-2043.745</v>
@@ -2794,37 +2794,37 @@
         <v>943.9</v>
       </c>
       <c r="M19">
-        <v>90.65170905806448</v>
+        <v>82.57250155806447</v>
       </c>
       <c r="N19">
-        <v>853.2482909419355</v>
+        <v>861.3274984419355</v>
       </c>
       <c r="O19">
-        <v>187.7146240072258</v>
+        <v>189.4920496572258</v>
       </c>
       <c r="P19">
-        <v>665.5336669347097</v>
+        <v>671.8354487847097</v>
       </c>
       <c r="Q19">
-        <v>1169.53366693471</v>
+        <v>1175.83544878471</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.07260346299954015</v>
+        <v>0.06895261705625644</v>
       </c>
       <c r="T19">
         <v>0.5935737618158954</v>
       </c>
       <c r="U19">
-        <v>0.07293241433363595</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.05688728318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>10.41237953269486</v>
+        <v>11.43116633491181</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.07023483217309637</v>
+        <v>0.06635162534942961</v>
       </c>
       <c r="C20">
-        <v>8071.944928157656</v>
+        <v>8004.440864496144</v>
       </c>
       <c r="D20">
-        <v>8677.514928157656</v>
+        <v>8610.010864496144</v>
       </c>
       <c r="E20">
         <v>-1970.63</v>
@@ -2876,37 +2876,37 @@
         <v>943.9</v>
       </c>
       <c r="M20">
-        <v>95.98416253206827</v>
+        <v>87.42970753206826</v>
       </c>
       <c r="N20">
-        <v>847.9158374679317</v>
+        <v>856.4702924679317</v>
       </c>
       <c r="O20">
-        <v>186.541484242945</v>
+        <v>188.423464342945</v>
       </c>
       <c r="P20">
-        <v>661.3743532249867</v>
+        <v>668.0468281249867</v>
       </c>
       <c r="Q20">
-        <v>1165.374353224987</v>
+        <v>1172.046828124987</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.07316478195201692</v>
+        <v>0.06954209070364283</v>
       </c>
       <c r="T20">
         <v>0.599439323255396</v>
       </c>
       <c r="U20">
-        <v>0.07293241433363595</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.05688728318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>9.833914003100704</v>
+        <v>10.79610153852783</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.0708639919159343</v>
+        <v>0.06666364040152625</v>
       </c>
       <c r="C21">
-        <v>7899.680867751593</v>
+        <v>7884.493882257324</v>
       </c>
       <c r="D21">
-        <v>8578.365867751592</v>
+        <v>8563.178882257323</v>
       </c>
       <c r="E21">
         <v>-1897.515</v>
@@ -2958,45 +2958,45 @@
         <v>943.9</v>
       </c>
       <c r="M21">
-        <v>104.3728230060721</v>
+        <v>92.28691350607205</v>
       </c>
       <c r="N21">
-        <v>839.5271769939279</v>
+        <v>851.6130864939279</v>
       </c>
       <c r="O21">
-        <v>184.6959789386642</v>
+        <v>187.3548790286641</v>
       </c>
       <c r="P21">
-        <v>654.8311980552637</v>
+        <v>664.2582074652637</v>
       </c>
       <c r="Q21">
-        <v>1158.831198055264</v>
+        <v>1168.258207465264</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.07373996063171537</v>
+        <v>0.07014611925590297</v>
       </c>
       <c r="T21">
         <v>0.6054497133724153</v>
       </c>
       <c r="U21">
-        <v>0.07513241433363596</v>
+        <v>0.06643241433363595</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.05860328318023605</v>
+        <v>0.05181728318023604</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y21">
-        <v>9.043541918427243</v>
+        <v>10.22788566807899</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.07118427165877225</v>
+        <v>0.0673188554536229</v>
       </c>
       <c r="C22">
-        <v>7776.958339624821</v>
+        <v>7714.673705059608</v>
       </c>
       <c r="D22">
-        <v>8528.758339624821</v>
+        <v>8466.473705059609</v>
       </c>
       <c r="E22">
         <v>-1824.4</v>
@@ -3040,37 +3040,37 @@
         <v>943.9</v>
       </c>
       <c r="M22">
-        <v>109.8661294800759</v>
+        <v>100.3611794800759</v>
       </c>
       <c r="N22">
-        <v>834.0338705199241</v>
+        <v>843.5388205199241</v>
       </c>
       <c r="O22">
-        <v>183.4874515143833</v>
+        <v>185.5785405143833</v>
       </c>
       <c r="P22">
-        <v>650.5464190055408</v>
+        <v>657.9602800055408</v>
       </c>
       <c r="Q22">
-        <v>1154.546419005541</v>
+        <v>1161.960280005541</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.07432951877840629</v>
+        <v>0.07076524852196961</v>
       </c>
       <c r="T22">
         <v>0.6116103632423601</v>
       </c>
       <c r="U22">
-        <v>0.07513241433363596</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.05860328318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>8.591364822505877</v>
+        <v>9.405030958084614</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.07150455140161016</v>
+        <v>0.06764803050571953</v>
       </c>
       <c r="C23">
-        <v>7654.806259906721</v>
+        <v>7593.794420665047</v>
       </c>
       <c r="D23">
-        <v>8479.721259906721</v>
+        <v>8418.709420665047</v>
       </c>
       <c r="E23">
         <v>-1751.285</v>
@@ -3122,37 +3122,37 @@
         <v>943.9</v>
       </c>
       <c r="M23">
-        <v>115.3594359540797</v>
+        <v>105.3792384540796</v>
       </c>
       <c r="N23">
-        <v>828.5405640459203</v>
+        <v>838.5207615459203</v>
       </c>
       <c r="O23">
-        <v>182.2789240901025</v>
+        <v>184.4745675401025</v>
       </c>
       <c r="P23">
-        <v>646.2616399558178</v>
+        <v>654.0461940058178</v>
       </c>
       <c r="Q23">
-        <v>1150.261639955818</v>
+        <v>1158.046194005818</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.07493400244779821</v>
+        <v>0.07140005194667083</v>
       </c>
       <c r="T23">
         <v>0.6179269789317969</v>
       </c>
       <c r="U23">
-        <v>0.07513241433363596</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.05860328318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>8.182252211910361</v>
+        <v>8.957172341032969</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.0718248311444481</v>
+        <v>0.06797720555781619</v>
       </c>
       <c r="C24">
-        <v>7533.214845270896</v>
+        <v>7473.45104491352</v>
       </c>
       <c r="D24">
-        <v>8431.244845270896</v>
+        <v>8371.48104491352</v>
       </c>
       <c r="E24">
         <v>-1678.17</v>
@@ -3204,37 +3204,37 @@
         <v>943.9</v>
       </c>
       <c r="M24">
-        <v>120.8527424280834</v>
+        <v>110.3972974280834</v>
       </c>
       <c r="N24">
-        <v>823.0472575719166</v>
+        <v>833.5027025719165</v>
       </c>
       <c r="O24">
-        <v>181.0703966658216</v>
+        <v>183.3705945658216</v>
       </c>
       <c r="P24">
-        <v>641.976860906095</v>
+        <v>650.1321080060949</v>
       </c>
       <c r="Q24">
-        <v>1145.976860906095</v>
+        <v>1154.132108006095</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.07555398569845662</v>
+        <v>0.07205113238226186</v>
       </c>
       <c r="T24">
         <v>0.6244055591260914</v>
       </c>
       <c r="U24">
-        <v>0.07513241433363596</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.05860328318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>7.810331656823528</v>
+        <v>8.550028143713288</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.07234245088728603</v>
+        <v>0.06830638060991283</v>
       </c>
       <c r="C25">
-        <v>7382.915734569497</v>
+        <v>7353.634608889119</v>
       </c>
       <c r="D25">
-        <v>8354.060734569497</v>
+        <v>8324.779608889119</v>
       </c>
       <c r="E25">
         <v>-1605.055</v>
@@ -3286,45 +3286,45 @@
         <v>943.9</v>
       </c>
       <c r="M25">
-        <v>128.1958584020872</v>
+        <v>115.4153564020872</v>
       </c>
       <c r="N25">
-        <v>815.7041415979128</v>
+        <v>828.4846435979127</v>
       </c>
       <c r="O25">
-        <v>179.4549111515408</v>
+        <v>182.2666215915408</v>
       </c>
       <c r="P25">
-        <v>636.2492304463719</v>
+        <v>646.2180220063719</v>
       </c>
       <c r="Q25">
-        <v>1140.249230446372</v>
+        <v>1150.218022006372</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.07619007241017109</v>
+        <v>0.0727191239979981</v>
       </c>
       <c r="T25">
         <v>0.6310524141306272</v>
       </c>
       <c r="U25">
-        <v>0.07623241433363595</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.05946128318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y25">
-        <v>7.362952374322819</v>
+        <v>8.178287789638796</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.07267131063012396</v>
+        <v>0.06863555566200946</v>
       </c>
       <c r="C26">
-        <v>7261.49317431841</v>
+        <v>7234.336342702843</v>
       </c>
       <c r="D26">
-        <v>8305.75317431841</v>
+        <v>8278.596342702844</v>
       </c>
       <c r="E26">
         <v>-1531.94</v>
@@ -3368,45 +3368,45 @@
         <v>943.9</v>
       </c>
       <c r="M26">
-        <v>133.769591376091</v>
+        <v>120.433415376091</v>
       </c>
       <c r="N26">
-        <v>810.1304086239089</v>
+        <v>823.4665846239089</v>
       </c>
       <c r="O26">
-        <v>178.22868989726</v>
+        <v>181.16264861726</v>
       </c>
       <c r="P26">
-        <v>631.9017187266489</v>
+        <v>642.303936006649</v>
       </c>
       <c r="Q26">
-        <v>1135.901718726649</v>
+        <v>1146.303936006649</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.07684289824587803</v>
+        <v>0.07340469434046423</v>
       </c>
       <c r="T26">
         <v>0.6378741863721245</v>
       </c>
       <c r="U26">
-        <v>0.07623241433363595</v>
+        <v>0.06863241433363595</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.05946128318023605</v>
+        <v>0.05353328318023605</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y26">
-        <v>7.056162692059367</v>
+        <v>7.837525798403846</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.07300017037296189</v>
+        <v>0.06917923071410612</v>
       </c>
       <c r="C27">
-        <v>7140.626081358338</v>
+        <v>7086.055609205105</v>
       </c>
       <c r="D27">
-        <v>8258.001081358338</v>
+        <v>8203.430609205105</v>
       </c>
       <c r="E27">
         <v>-1458.825</v>
@@ -3450,37 +3450,37 @@
         <v>943.9</v>
       </c>
       <c r="M27">
-        <v>139.3433243500948</v>
+        <v>127.4621368500948</v>
       </c>
       <c r="N27">
-        <v>804.5566756499052</v>
+        <v>816.4378631499052</v>
       </c>
       <c r="O27">
-        <v>177.0024686429792</v>
+        <v>179.6163298929791</v>
       </c>
       <c r="P27">
-        <v>627.554207006926</v>
+        <v>636.821533256926</v>
       </c>
       <c r="Q27">
-        <v>1131.554207006926</v>
+        <v>1140.821533256926</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.07751313277053717</v>
+        <v>0.07410854655872946</v>
       </c>
       <c r="T27">
         <v>0.6448778725400616</v>
       </c>
       <c r="U27">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>6.773916184376993</v>
+        <v>7.405336387150784</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.07332903011579982</v>
+        <v>0.06951698576620274</v>
       </c>
       <c r="C28">
-        <v>7020.304929846581</v>
+        <v>6966.927842250267</v>
       </c>
       <c r="D28">
-        <v>8210.794929846581</v>
+        <v>8157.417842250266</v>
       </c>
       <c r="E28">
         <v>-1385.71</v>
@@ -3532,37 +3532,37 @@
         <v>943.9</v>
       </c>
       <c r="M28">
-        <v>144.9170573240986</v>
+        <v>132.5606223240986</v>
       </c>
       <c r="N28">
-        <v>798.9829426759013</v>
+        <v>811.3393776759013</v>
       </c>
       <c r="O28">
-        <v>175.7762473886983</v>
+        <v>178.4946630886983</v>
       </c>
       <c r="P28">
-        <v>623.206695287203</v>
+        <v>632.844714587203</v>
       </c>
       <c r="Q28">
-        <v>1127.206695287203</v>
+        <v>1136.844714587203</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.07820148174180871</v>
+        <v>0.07483142180992078</v>
       </c>
       <c r="T28">
         <v>0.6520708475233484</v>
       </c>
       <c r="U28">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>6.513380946516339</v>
+        <v>7.120515756875754</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.07365788985863776</v>
+        <v>0.0698547408182994</v>
       </c>
       <c r="C29">
-        <v>6900.520410517034</v>
+        <v>6848.313364405078</v>
       </c>
       <c r="D29">
-        <v>8164.125410517035</v>
+        <v>8111.918364405077</v>
       </c>
       <c r="E29">
         <v>-1312.595</v>
@@ -3614,37 +3614,37 @@
         <v>943.9</v>
       </c>
       <c r="M29">
-        <v>150.4907902981024</v>
+        <v>137.6591077981024</v>
       </c>
       <c r="N29">
-        <v>793.4092097018976</v>
+        <v>806.2408922018976</v>
       </c>
       <c r="O29">
-        <v>174.5500261344175</v>
+        <v>177.3729962844175</v>
       </c>
       <c r="P29">
-        <v>618.8591835674802</v>
+        <v>628.8678959174802</v>
       </c>
       <c r="Q29">
-        <v>1122.85918356748</v>
+        <v>1132.86789591748</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.07890868958900552</v>
+        <v>0.07557410186251461</v>
       </c>
       <c r="T29">
         <v>0.6594608903143966</v>
       </c>
       <c r="U29">
-        <v>0.07623241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.05946128318023605</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>6.272144615163882</v>
+        <v>6.856792951065542</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.07431434960147568</v>
+        <v>0.07019249587039603</v>
       </c>
       <c r="C30">
-        <v>6735.813865810719</v>
+        <v>6730.203634420534</v>
       </c>
       <c r="D30">
-        <v>8072.533865810719</v>
+        <v>8066.923634420536</v>
       </c>
       <c r="E30">
         <v>-1239.48</v>
@@ -3696,45 +3696,45 @@
         <v>943.9</v>
       </c>
       <c r="M30">
-        <v>159.1353532721062</v>
+        <v>142.7575932721062</v>
       </c>
       <c r="N30">
-        <v>784.7646467278937</v>
+        <v>801.1424067278938</v>
       </c>
       <c r="O30">
-        <v>172.6482222801366</v>
+        <v>176.2513294801366</v>
       </c>
       <c r="P30">
-        <v>612.116424447757</v>
+        <v>624.8910772477572</v>
       </c>
       <c r="Q30">
-        <v>1116.116424447757</v>
+        <v>1128.891077247757</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.07963554209862442</v>
+        <v>0.07633741191656937</v>
       </c>
       <c r="T30">
         <v>0.6670562120718627</v>
       </c>
       <c r="U30">
-        <v>0.07773241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.06063128318023604</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y30">
-        <v>5.931428690053688</v>
+        <v>6.611907488527486</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.07465490934431361</v>
+        <v>0.07053025092249268</v>
       </c>
       <c r="C31">
-        <v>6615.987723307589</v>
+        <v>6612.590299506762</v>
       </c>
       <c r="D31">
-        <v>8025.82272330759</v>
+        <v>8022.425299506763</v>
       </c>
       <c r="E31">
         <v>-1166.365</v>
@@ -3778,45 +3778,45 @@
         <v>943.9</v>
       </c>
       <c r="M31">
-        <v>164.81875874611</v>
+        <v>147.85607874611</v>
       </c>
       <c r="N31">
-        <v>779.08124125389</v>
+        <v>796.0439212538899</v>
       </c>
       <c r="O31">
-        <v>171.3978730758558</v>
+        <v>175.1296626758558</v>
       </c>
       <c r="P31">
-        <v>607.6833681780342</v>
+        <v>620.9142585780342</v>
       </c>
       <c r="Q31">
-        <v>1111.683368178034</v>
+        <v>1124.914258578034</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.08038286932682417</v>
+        <v>0.07712222366228765</v>
       </c>
       <c r="T31">
         <v>0.6748654865548912</v>
       </c>
       <c r="U31">
-        <v>0.07773241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.06063128318023604</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y31">
-        <v>5.726896666258735</v>
+        <v>6.383910678578262</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.07499546908715155</v>
+        <v>0.07086800597458931</v>
       </c>
       <c r="C32">
-        <v>6496.699052165827</v>
+        <v>6495.465190163696</v>
       </c>
       <c r="D32">
-        <v>7979.649052165828</v>
+        <v>7978.415190163696</v>
       </c>
       <c r="E32">
         <v>-1093.25</v>
@@ -3860,45 +3860,45 @@
         <v>943.9</v>
       </c>
       <c r="M32">
-        <v>170.5021642201138</v>
+        <v>152.9545642201138</v>
       </c>
       <c r="N32">
-        <v>773.3978357798862</v>
+        <v>790.9454357798862</v>
       </c>
       <c r="O32">
-        <v>170.147523871575</v>
+        <v>174.007995871575</v>
       </c>
       <c r="P32">
-        <v>603.2503119083112</v>
+        <v>616.9374399083113</v>
       </c>
       <c r="Q32">
-        <v>1107.250311908311</v>
+        <v>1120.937439908311</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.0811515487615439</v>
+        <v>0.07792945860074073</v>
       </c>
       <c r="T32">
         <v>0.6828978831660063</v>
       </c>
       <c r="U32">
-        <v>0.07773241433363595</v>
+        <v>0.06973241433363594</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.06063128318023604</v>
+        <v>0.05439128318023604</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y32">
-        <v>5.536000110716778</v>
+        <v>6.171113655958988</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.07533602882998947</v>
+        <v>0.07156846102668596</v>
       </c>
       <c r="C33">
-        <v>6377.938629006976</v>
+        <v>6332.601364907203</v>
       </c>
       <c r="D33">
-        <v>7934.003629006977</v>
+        <v>7888.666364907202</v>
       </c>
       <c r="E33">
         <v>-1020.135</v>
@@ -3942,37 +3942,37 @@
         <v>943.9</v>
       </c>
       <c r="M33">
-        <v>176.1855696941176</v>
+        <v>161.4528971941176</v>
       </c>
       <c r="N33">
-        <v>767.7144303058824</v>
+        <v>782.4471028058824</v>
       </c>
       <c r="O33">
-        <v>168.8971746672941</v>
+        <v>172.1383626172941</v>
       </c>
       <c r="P33">
-        <v>598.8172556385882</v>
+        <v>610.3087401885883</v>
       </c>
       <c r="Q33">
-        <v>1102.817255638588</v>
+        <v>1114.308740188588</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.08194250875958883</v>
+        <v>0.07876009165335188</v>
       </c>
       <c r="T33">
         <v>0.6911631028672987</v>
       </c>
       <c r="U33">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>5.357419461983977</v>
+        <v>5.846287161172047</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.0756765885728274</v>
+        <v>0.0719179160787826</v>
       </c>
       <c r="C34">
-        <v>6259.697440291608</v>
+        <v>6215.461675359034</v>
       </c>
       <c r="D34">
-        <v>7888.877440291608</v>
+        <v>7844.641675359034</v>
       </c>
       <c r="E34">
         <v>-947.02</v>
@@ -4024,37 +4024,37 @@
         <v>943.9</v>
       </c>
       <c r="M34">
-        <v>181.8689751681214</v>
+        <v>166.6610551681214</v>
       </c>
       <c r="N34">
-        <v>762.0310248318787</v>
+        <v>777.2389448318786</v>
       </c>
       <c r="O34">
-        <v>167.6468254630133</v>
+        <v>170.9925678630133</v>
       </c>
       <c r="P34">
-        <v>594.3841993688653</v>
+        <v>606.2463769688653</v>
       </c>
       <c r="Q34">
-        <v>1098.384199368865</v>
+        <v>1110.246376968865</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.08275673228698804</v>
+        <v>0.07961515508986335</v>
       </c>
       <c r="T34">
         <v>0.6996714172656878</v>
       </c>
       <c r="U34">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>5.190000103796979</v>
+        <v>5.663590687385421</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.07601714831566533</v>
+        <v>0.07226737113087925</v>
       </c>
       <c r="C35">
-        <v>6141.966676385586</v>
+        <v>6098.810640487192</v>
       </c>
       <c r="D35">
-        <v>7844.261676385586</v>
+        <v>7801.105640487193</v>
       </c>
       <c r="E35">
         <v>-873.9049999999997</v>
@@ -4106,37 +4106,37 @@
         <v>943.9</v>
       </c>
       <c r="M35">
-        <v>187.5523806421252</v>
+        <v>171.8692131421251</v>
       </c>
       <c r="N35">
-        <v>756.3476193578748</v>
+        <v>772.0307868578748</v>
       </c>
       <c r="O35">
-        <v>166.3964762587325</v>
+        <v>169.8467731087325</v>
       </c>
       <c r="P35">
-        <v>589.9511430991423</v>
+        <v>602.1840137491423</v>
       </c>
       <c r="Q35">
-        <v>1093.951143099142</v>
+        <v>1106.184013749142</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.08359526099430961</v>
+        <v>0.08049574280806172</v>
       </c>
       <c r="T35">
         <v>0.7084337111983572</v>
       </c>
       <c r="U35">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>5.032727373378888</v>
+        <v>5.491966727161619</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.07635770805850325</v>
+        <v>0.07261682618297588</v>
       </c>
       <c r="C36">
-        <v>6024.737725826519</v>
+        <v>5982.640169416523</v>
       </c>
       <c r="D36">
-        <v>7800.147725826519</v>
+        <v>7758.050169416523</v>
       </c>
       <c r="E36">
         <v>-800.7899999999995</v>
@@ -4188,37 +4188,37 @@
         <v>943.9</v>
       </c>
       <c r="M36">
-        <v>193.235786116129</v>
+        <v>177.0773711161289</v>
       </c>
       <c r="N36">
-        <v>750.6642138838711</v>
+        <v>766.8226288838711</v>
       </c>
       <c r="O36">
-        <v>165.1461270544516</v>
+        <v>168.7009783544516</v>
       </c>
       <c r="P36">
-        <v>585.5180868294194</v>
+        <v>598.1216505294194</v>
       </c>
       <c r="Q36">
-        <v>1089.51808682942</v>
+        <v>1102.12165052942</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.0844591996624591</v>
+        <v>0.08140301500256915</v>
       </c>
       <c r="T36">
         <v>0.7174615291895924</v>
       </c>
       <c r="U36">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>4.884705980044215</v>
+        <v>5.330438294009808</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.07669826780134119</v>
+        <v>0.07296628123507252</v>
       </c>
       <c r="C37">
-        <v>5908.002169782611</v>
+        <v>5866.942348910457</v>
       </c>
       <c r="D37">
-        <v>7756.52716978261</v>
+        <v>7715.467348910457</v>
       </c>
       <c r="E37">
         <v>-727.6749999999997</v>
@@ -4270,37 +4270,37 @@
         <v>943.9</v>
       </c>
       <c r="M37">
-        <v>198.9191915901328</v>
+        <v>182.2855290901327</v>
       </c>
       <c r="N37">
-        <v>744.9808084098672</v>
+        <v>761.6144709098672</v>
       </c>
       <c r="O37">
-        <v>163.8957778501708</v>
+        <v>167.5551836001708</v>
       </c>
       <c r="P37">
-        <v>581.0850305596964</v>
+        <v>594.0592873096964</v>
       </c>
       <c r="Q37">
-        <v>1085.085030559696</v>
+        <v>1098.059287309697</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.08534972105885935</v>
+        <v>0.08233820326459988</v>
       </c>
       <c r="T37">
         <v>0.7267671261959425</v>
       </c>
       <c r="U37">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>4.745142952042952</v>
+        <v>5.178140057038099</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.07703882754417912</v>
+        <v>0.07331573628716917</v>
       </c>
       <c r="C38">
-        <v>5791.751776696403</v>
+        <v>5751.709438522477</v>
       </c>
       <c r="D38">
-        <v>7713.391776696402</v>
+        <v>7673.349438522478</v>
       </c>
       <c r="E38">
         <v>-654.5599999999999</v>
@@ -4352,37 +4352,37 @@
         <v>943.9</v>
       </c>
       <c r="M38">
-        <v>204.6025970641365</v>
+        <v>187.4936870641365</v>
       </c>
       <c r="N38">
-        <v>739.2974029358635</v>
+        <v>756.4063129358635</v>
       </c>
       <c r="O38">
-        <v>162.64542864589</v>
+        <v>166.40938884589</v>
       </c>
       <c r="P38">
-        <v>576.6519742899735</v>
+        <v>589.9969240899736</v>
       </c>
       <c r="Q38">
-        <v>1080.651974289974</v>
+        <v>1093.996924089974</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.0862680712488971</v>
+        <v>0.08330261615981906</v>
       </c>
       <c r="T38">
         <v>0.736363523108741</v>
       </c>
       <c r="U38">
-        <v>0.07773241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.06063128318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>4.613333425597315</v>
+        <v>5.034302833231486</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.07847606728701706</v>
+        <v>0.07366519133926581</v>
       </c>
       <c r="C39">
-        <v>5541.759163064703</v>
+        <v>5636.933865905507</v>
       </c>
       <c r="D39">
-        <v>7536.514163064703</v>
+        <v>7631.688865905508</v>
       </c>
       <c r="E39">
         <v>-581.4449999999997</v>
@@ -4434,45 +4434,45 @@
         <v>943.9</v>
       </c>
       <c r="M39">
-        <v>220.5659715381403</v>
+        <v>192.7018450381403</v>
       </c>
       <c r="N39">
-        <v>723.3340284618596</v>
+        <v>751.1981549618597</v>
       </c>
       <c r="O39">
-        <v>159.1334862616091</v>
+        <v>165.2635940916091</v>
       </c>
       <c r="P39">
-        <v>564.2005422002505</v>
+        <v>585.9345608702506</v>
       </c>
       <c r="Q39">
-        <v>1068.200542200251</v>
+        <v>1089.934560870251</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.08721557541322178</v>
+        <v>0.08429764533742616</v>
       </c>
       <c r="T39">
         <v>0.7462645675425807</v>
       </c>
       <c r="U39">
-        <v>0.08153241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.06359528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y39">
-        <v>4.279445253579292</v>
+        <v>4.898240594495499</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.07884626702985498</v>
+        <v>0.07401464639136246</v>
       </c>
       <c r="C40">
-        <v>5424.390700702853</v>
+        <v>5522.608222273276</v>
       </c>
       <c r="D40">
-        <v>7492.260700702854</v>
+        <v>7590.478222273277</v>
       </c>
       <c r="E40">
         <v>-508.3299999999999</v>
@@ -4516,45 +4516,45 @@
         <v>943.9</v>
       </c>
       <c r="M40">
-        <v>226.5272140121441</v>
+        <v>197.9100030121441</v>
       </c>
       <c r="N40">
-        <v>717.3727859878559</v>
+        <v>745.9899969878559</v>
       </c>
       <c r="O40">
-        <v>157.8220129173283</v>
+        <v>164.1177993373283</v>
       </c>
       <c r="P40">
-        <v>559.5507730705276</v>
+        <v>581.8721976505276</v>
       </c>
       <c r="Q40">
-        <v>1063.550773070528</v>
+        <v>1085.872197650528</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.08819364422800852</v>
+        <v>0.08532477223043994</v>
       </c>
       <c r="T40">
         <v>0.7564850005065443</v>
       </c>
       <c r="U40">
-        <v>0.08153241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.06359528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y40">
-        <v>4.166828273221943</v>
+        <v>4.769339526219301</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.07921646677269292</v>
+        <v>0.07436410144345909</v>
       </c>
       <c r="C41">
-        <v>5307.538906052707</v>
+        <v>5408.725258007944</v>
       </c>
       <c r="D41">
-        <v>7448.523906052707</v>
+        <v>7549.710258007944</v>
       </c>
       <c r="E41">
         <v>-435.2149999999997</v>
@@ -4598,45 +4598,45 @@
         <v>943.9</v>
       </c>
       <c r="M41">
-        <v>232.4884564861479</v>
+        <v>203.1181609861479</v>
       </c>
       <c r="N41">
-        <v>711.4115435138521</v>
+        <v>740.781839013852</v>
       </c>
       <c r="O41">
-        <v>156.5105395730475</v>
+        <v>162.9720045830475</v>
       </c>
       <c r="P41">
-        <v>554.9010039408046</v>
+        <v>577.8098344308046</v>
       </c>
       <c r="Q41">
-        <v>1058.901003940805</v>
+        <v>1081.809834430805</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.0892037808727883</v>
+        <v>0.08638557541502793</v>
       </c>
       <c r="T41">
         <v>0.7670405296332609</v>
       </c>
       <c r="U41">
-        <v>0.08153241433363595</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.06359528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Baa2/BBB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y41">
-        <v>4.059986522626508</v>
+        <v>4.647048769136756</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.08145866651553083</v>
+        <v>0.07471355649555575</v>
       </c>
       <c r="C42">
-        <v>4980.061774242996</v>
+        <v>5295.277878408522</v>
       </c>
       <c r="D42">
-        <v>7194.161774242996</v>
+        <v>7509.377878408523</v>
       </c>
       <c r="E42">
         <v>-362.0999999999995</v>
@@ -4680,45 +4680,45 @@
         <v>943.9</v>
       </c>
       <c r="M42">
-        <v>255.9972989601517</v>
+        <v>208.3263189601517</v>
       </c>
       <c r="N42">
-        <v>687.9027010398482</v>
+        <v>735.5736810398482</v>
       </c>
       <c r="O42">
-        <v>151.3385942287666</v>
+        <v>161.8262098287666</v>
       </c>
       <c r="P42">
-        <v>536.5641068110816</v>
+        <v>573.7474712110816</v>
       </c>
       <c r="Q42">
-        <v>1040.564106811082</v>
+        <v>1077.747471211082</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.09024758873906069</v>
+        <v>0.08748173870576888</v>
       </c>
       <c r="T42">
         <v>0.7779479097308679</v>
       </c>
       <c r="U42">
-        <v>0.08753241433363596</v>
+        <v>0.07123241433363595</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.06827528318023604</v>
+        <v>0.05556128318023604</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Ba1/BB+</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y42">
-        <v>3.687148277868848</v>
+        <v>4.530872549908336</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.08187566625836877</v>
+        <v>0.07627825154765239</v>
       </c>
       <c r="C43">
-        <v>4861.544831596462</v>
+        <v>5046.734494729231</v>
       </c>
       <c r="D43">
-        <v>7148.759831596462</v>
+        <v>7333.949494729231</v>
       </c>
       <c r="E43">
         <v>-288.9849999999997</v>
@@ -4762,45 +4762,45 @@
         <v>943.9</v>
       </c>
       <c r="M43">
-        <v>262.3972314341555</v>
+        <v>224.9257939341555</v>
       </c>
       <c r="N43">
-        <v>681.5027685658445</v>
+        <v>718.9742060658444</v>
       </c>
       <c r="O43">
-        <v>149.9306090844858</v>
+        <v>158.1743253344858</v>
       </c>
       <c r="P43">
-        <v>531.5721594813587</v>
+        <v>560.7998807313586</v>
       </c>
       <c r="Q43">
-        <v>1035.572159481359</v>
+        <v>1064.799880731359</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.09132677992283389</v>
+        <v>0.08861506007416205</v>
       </c>
       <c r="T43">
         <v>0.789225031526699</v>
       </c>
       <c r="U43">
-        <v>0.08753241433363596</v>
+        <v>0.07503241433363596</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.06827528318023604</v>
+        <v>0.05852528318023605</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Ba1/BB+</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y43">
-        <v>3.597217832067169</v>
+        <v>4.196495135085822</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.0822926660012067</v>
+        <v>0.07665734659974903</v>
       </c>
       <c r="C44">
-        <v>4743.597353209572</v>
+        <v>4932.343166219745</v>
       </c>
       <c r="D44">
-        <v>7103.927353209572</v>
+        <v>7292.673166219745</v>
       </c>
       <c r="E44">
         <v>-215.8699999999999</v>
@@ -4844,45 +4844,45 @@
         <v>943.9</v>
       </c>
       <c r="M44">
-        <v>268.7971639081593</v>
+        <v>230.4117889081593</v>
       </c>
       <c r="N44">
-        <v>675.1028360918407</v>
+        <v>713.4882110918406</v>
       </c>
       <c r="O44">
-        <v>148.522623940205</v>
+        <v>156.9674064402049</v>
       </c>
       <c r="P44">
-        <v>526.5802121516357</v>
+        <v>556.5208046516357</v>
       </c>
       <c r="Q44">
-        <v>1030.580212151636</v>
+        <v>1060.520804651636</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.09244318459570269</v>
+        <v>0.08978746148974119</v>
       </c>
       <c r="T44">
         <v>0.8008910195913518</v>
       </c>
       <c r="U44">
-        <v>0.08753241433363596</v>
+        <v>0.07503241433363596</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.06827528318023604</v>
+        <v>0.05852528318023605</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Ba1/BB+</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y44">
-        <v>3.511569788446522</v>
+        <v>4.096578584250446</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.08425250574404464</v>
+        <v>0.07703644165184567</v>
       </c>
       <c r="C45">
-        <v>4467.092294573698</v>
+        <v>4818.413853473859</v>
       </c>
       <c r="D45">
-        <v>6900.537294573699</v>
+        <v>7251.85885347386</v>
       </c>
       <c r="E45">
         <v>-142.7549999999997</v>
@@ -4926,45 +4926,45 @@
         <v>943.9</v>
       </c>
       <c r="M45">
-        <v>289.6592433821631</v>
+        <v>235.8977838821631</v>
       </c>
       <c r="N45">
-        <v>654.240756617837</v>
+        <v>708.0022161178368</v>
       </c>
       <c r="O45">
-        <v>143.9329664559241</v>
+        <v>155.7604875459241</v>
       </c>
       <c r="P45">
-        <v>510.3077901619129</v>
+        <v>552.2417285719127</v>
       </c>
       <c r="Q45">
-        <v>1014.307790161913</v>
+        <v>1056.241728571913</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.09359876136235637</v>
+        <v>0.09100099979709504</v>
       </c>
       <c r="T45">
         <v>0.8129663405705538</v>
       </c>
       <c r="U45">
-        <v>0.09213241433363595</v>
+        <v>0.07503241433363596</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.07186328318023605</v>
+        <v>0.05852528318023605</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>Baa2/BBB</t>
         </is>
       </c>
       <c r="Y45">
-        <v>3.258656582053768</v>
+        <v>4.001309314849273</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.08470538548688257</v>
+        <v>0.07947473670394233</v>
       </c>
       <c r="C46">
-        <v>4348.623603663647</v>
+        <v>4493.325388499887</v>
       </c>
       <c r="D46">
-        <v>6855.183603663647</v>
+        <v>6999.885388499886</v>
       </c>
       <c r="E46">
         <v>-69.63999999999987</v>
@@ -5008,45 +5008,45 @@
         <v>943.9</v>
       </c>
       <c r="M46">
-        <v>296.3955048561668</v>
+        <v>260.6861388561668</v>
       </c>
       <c r="N46">
-        <v>647.5044951438331</v>
+        <v>683.2138611438331</v>
       </c>
       <c r="O46">
-        <v>142.4509889316433</v>
+        <v>150.3070494516433</v>
       </c>
       <c r="P46">
-        <v>505.0535062121898</v>
+        <v>532.9068116921899</v>
       </c>
       <c r="Q46">
-        <v>1009.05350621219</v>
+        <v>1036.90681169219</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.09479560872781911</v>
+        <v>0.09225787875828297</v>
       </c>
       <c r="T46">
         <v>0.8254729230132989</v>
       </c>
       <c r="U46">
-        <v>0.09213241433363595</v>
+        <v>0.08103241433363595</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.07186328318023605</v>
+        <v>0.06320528318023605</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>Ba1/BB+</t>
         </is>
       </c>
       <c r="Y46">
-        <v>3.184596205188909</v>
+        <v>3.620829262889176</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.0851582652297205</v>
+        <v>0.07990063175603895</v>
       </c>
       <c r="C47">
-        <v>4230.747193076872</v>
+        <v>4377.983903013082</v>
       </c>
       <c r="D47">
-        <v>6810.422193076872</v>
+        <v>6957.658903013082</v>
       </c>
       <c r="E47">
         <v>3.475000000000364</v>
@@ -5090,45 +5090,45 @@
         <v>943.9</v>
       </c>
       <c r="M47">
-        <v>303.1317663301706</v>
+        <v>266.6108238301707</v>
       </c>
       <c r="N47">
-        <v>640.7682336698293</v>
+        <v>677.2891761698293</v>
       </c>
       <c r="O47">
-        <v>140.9690114073624</v>
+        <v>149.0036187573624</v>
       </c>
       <c r="P47">
-        <v>499.7992222624669</v>
+        <v>528.2855574124668</v>
       </c>
       <c r="Q47">
-        <v>1003.799222262467</v>
+        <v>1032.285557412467</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.09603597781566231</v>
+        <v>0.09356046240896861</v>
       </c>
       <c r="T47">
         <v>0.8384342902721436</v>
       </c>
       <c r="U47">
-        <v>0.09213241433363595</v>
+        <v>0.08103241433363595</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.07186328318023605</v>
+        <v>0.06320528318023605</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>Ba1/BB+</t>
         </is>
       </c>
       <c r="Y47">
-        <v>3.113827400629156</v>
+        <v>3.540366390380527</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.08561114497255844</v>
+        <v>0.08197700680813559</v>
       </c>
       <c r="C48">
-        <v>4113.451536068154</v>
+        <v>4106.089261394748</v>
       </c>
       <c r="D48">
-        <v>6766.241536068154</v>
+        <v>6758.879261394748</v>
       </c>
       <c r="E48">
         <v>76.59000000000015</v>
@@ -5172,37 +5172,37 @@
         <v>943.9</v>
       </c>
       <c r="M48">
-        <v>309.8680278041745</v>
+        <v>288.0066428041745</v>
       </c>
       <c r="N48">
-        <v>634.0319721958256</v>
+        <v>655.8933571958255</v>
       </c>
       <c r="O48">
-        <v>139.4870338830816</v>
+        <v>144.2965385830816</v>
       </c>
       <c r="P48">
-        <v>494.544938312744</v>
+        <v>511.5968186127439</v>
       </c>
       <c r="Q48">
-        <v>998.5449383127441</v>
+        <v>1015.596818612744</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.09732228649935157</v>
+        <v>0.09491128989856853</v>
       </c>
       <c r="T48">
         <v>0.8518757081702047</v>
       </c>
       <c r="U48">
-        <v>0.09213241433363595</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.07186328318023605</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>3.046135500615479</v>
+        <v>3.277354962405467</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.09075650471539637</v>
+        <v>0.08243878186023224</v>
       </c>
       <c r="C49">
-        <v>3575.870550865246</v>
+        <v>3990.300843220929</v>
       </c>
       <c r="D49">
-        <v>6301.775550865246</v>
+        <v>6716.205843220929</v>
       </c>
       <c r="E49">
         <v>149.7050000000004</v>
@@ -5254,45 +5254,45 @@
         <v>943.9</v>
       </c>
       <c r="M49">
-        <v>360.5902732781783</v>
+        <v>294.2676567781783</v>
       </c>
       <c r="N49">
-        <v>583.3097267218217</v>
+        <v>649.6323432218217</v>
       </c>
       <c r="O49">
-        <v>128.3281398788008</v>
+        <v>142.9191155088008</v>
       </c>
       <c r="P49">
-        <v>454.9815868430209</v>
+        <v>506.7132277130209</v>
       </c>
       <c r="Q49">
-        <v>958.981586843021</v>
+        <v>1010.713227713021</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.09865713513336871</v>
+        <v>0.09631309201041754</v>
       </c>
       <c r="T49">
         <v>0.8658243493851741</v>
       </c>
       <c r="U49">
-        <v>0.104932414333636</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.08184728318023604</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>B1/B+</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y49">
-        <v>2.61765241590925</v>
+        <v>3.207624005758542</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5303,13 +5303,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.09130922445823428</v>
+        <v>0.08290055691232888</v>
       </c>
       <c r="C50">
-        <v>3456.627203144988</v>
+        <v>3875.047897079578</v>
       </c>
       <c r="D50">
-        <v>6255.647203144988</v>
+        <v>6674.067897079578</v>
       </c>
       <c r="E50">
         <v>222.8200000000002</v>
@@ -5336,45 +5336,45 @@
         <v>943.9</v>
       </c>
       <c r="M50">
-        <v>368.2624067521821</v>
+        <v>300.5286707521821</v>
       </c>
       <c r="N50">
-        <v>575.6375932478179</v>
+        <v>643.3713292478179</v>
       </c>
       <c r="O50">
-        <v>126.6402705145199</v>
+        <v>141.5416924345199</v>
       </c>
       <c r="P50">
-        <v>448.9973227332979</v>
+        <v>501.829636813298</v>
       </c>
       <c r="Q50">
-        <v>952.997322733298</v>
+        <v>1005.829636813298</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1000433240994634</v>
+        <v>0.09776880958810688</v>
       </c>
       <c r="T50">
         <v>0.880309476800719</v>
       </c>
       <c r="U50">
-        <v>0.104932414333636</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.08184728318023604</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>B1/B+</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y50">
-        <v>2.563117990577807</v>
+        <v>3.140798505638573</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.09186194420107222</v>
+        <v>0.08336233196442552</v>
       </c>
       <c r="C51">
-        <v>3338.054257654313</v>
+        <v>3760.320407044147</v>
       </c>
       <c r="D51">
-        <v>6210.189257654312</v>
+        <v>6632.455407044146</v>
       </c>
       <c r="E51">
         <v>295.9349999999999</v>
@@ -5418,45 +5418,45 @@
         <v>943.9</v>
       </c>
       <c r="M51">
-        <v>375.9345402261858</v>
+        <v>306.7896847261858</v>
       </c>
       <c r="N51">
-        <v>567.9654597738141</v>
+        <v>637.1103152738142</v>
       </c>
       <c r="O51">
-        <v>124.9524011502391</v>
+        <v>140.1642693602391</v>
       </c>
       <c r="P51">
-        <v>443.013058623575</v>
+        <v>496.9460459135751</v>
       </c>
       <c r="Q51">
-        <v>947.0130586235751</v>
+        <v>1000.946045913575</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1014838734171697</v>
+        <v>0.09928161412962719</v>
       </c>
       <c r="T51">
         <v>0.8953626484286383</v>
       </c>
       <c r="U51">
-        <v>0.104932414333636</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.08184728318023604</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>B1/B+</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y51">
-        <v>2.510809460157852</v>
+        <v>3.076700576952071</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.09557366394391015</v>
+        <v>0.08382410701652215</v>
       </c>
       <c r="C52">
-        <v>2975.990738371023</v>
+        <v>3646.108605435542</v>
       </c>
       <c r="D52">
-        <v>5921.240738371023</v>
+        <v>6591.358605435542</v>
       </c>
       <c r="E52">
         <v>369.0500000000002</v>
@@ -5500,45 +5500,45 @@
         <v>943.9</v>
       </c>
       <c r="M52">
-        <v>413.2182487001896</v>
+        <v>313.0506987001896</v>
       </c>
       <c r="N52">
-        <v>530.6817512998103</v>
+        <v>630.8493012998103</v>
       </c>
       <c r="O52">
-        <v>116.7499852859583</v>
+        <v>138.7868462859583</v>
       </c>
       <c r="P52">
-        <v>413.9317660138521</v>
+        <v>492.0624550138521</v>
       </c>
       <c r="Q52">
-        <v>917.9317660138522</v>
+        <v>996.0624550138522</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1029820447075842</v>
+        <v>0.1008549308528083</v>
       </c>
       <c r="T52">
         <v>0.9110179469216743</v>
       </c>
       <c r="U52">
-        <v>0.1130324143336359</v>
+        <v>0.08563241433363596</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.08816528318023605</v>
+        <v>0.06679328318023604</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>Ba2/BB</t>
         </is>
       </c>
       <c r="Y52">
-        <v>2.284265041462015</v>
+        <v>3.01516656541303</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.09618956368674808</v>
+        <v>0.08937772206861881</v>
       </c>
       <c r="C53">
-        <v>2857.510513324462</v>
+        <v>3115.864363752743</v>
       </c>
       <c r="D53">
-        <v>5875.875513324462</v>
+        <v>6134.229363752743</v>
       </c>
       <c r="E53">
         <v>442.1650000000004</v>
@@ -5582,45 +5582,45 @@
         <v>943.9</v>
       </c>
       <c r="M53">
-        <v>421.4826136741934</v>
+        <v>367.0411846741935</v>
       </c>
       <c r="N53">
-        <v>522.4173863258065</v>
+        <v>576.8588153258065</v>
       </c>
       <c r="O53">
-        <v>114.9318249916774</v>
+        <v>126.9089393716774</v>
       </c>
       <c r="P53">
-        <v>407.4855613341291</v>
+        <v>449.9498759541291</v>
       </c>
       <c r="Q53">
-        <v>911.4855613341292</v>
+        <v>953.9498759541292</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1045413658465871</v>
+        <v>0.1024924645850988</v>
       </c>
       <c r="T53">
         <v>0.9273122371899364</v>
       </c>
       <c r="U53">
-        <v>0.1130324143336359</v>
+        <v>0.09843241433363595</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.08816528318023605</v>
+        <v>0.07677728318023604</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>B1/B+</t>
         </is>
       </c>
       <c r="Y53">
-        <v>2.239475530845113</v>
+        <v>2.571646015249921</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.09680546342958601</v>
+        <v>0.08993933712071545</v>
       </c>
       <c r="C54">
-        <v>2739.720128919681</v>
+        <v>3000.02734163915</v>
       </c>
       <c r="D54">
-        <v>5831.200128919681</v>
+        <v>6091.50734163915</v>
       </c>
       <c r="E54">
         <v>515.2800000000002</v>
@@ -5664,45 +5664,45 @@
         <v>943.9</v>
       </c>
       <c r="M54">
-        <v>429.7469786481972</v>
+        <v>374.2380706481972</v>
       </c>
       <c r="N54">
-        <v>514.1530213518027</v>
+        <v>569.6619293518028</v>
       </c>
       <c r="O54">
-        <v>113.1136646973966</v>
+        <v>125.3256244573966</v>
       </c>
       <c r="P54">
-        <v>401.0393566544062</v>
+        <v>444.3363048944062</v>
       </c>
       <c r="Q54">
-        <v>905.0393566544062</v>
+        <v>948.3363048944063</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1061656586997151</v>
+        <v>0.1041982288895681</v>
       </c>
       <c r="T54">
         <v>0.944285456219376</v>
       </c>
       <c r="U54">
-        <v>0.1130324143336359</v>
+        <v>0.09843241433363595</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.08816528318023605</v>
+        <v>0.07677728318023604</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>B1/B+</t>
         </is>
       </c>
       <c r="Y54">
-        <v>2.196408693713476</v>
+        <v>2.522191284187423</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.09742136317242395</v>
+        <v>0.0938494921728121</v>
       </c>
       <c r="C55">
-        <v>2622.603968926171</v>
+        <v>2645.198784352364</v>
       </c>
       <c r="D55">
-        <v>5787.198968926171</v>
+        <v>5809.793784352364</v>
       </c>
       <c r="E55">
         <v>588.3950000000004</v>
@@ -5746,37 +5746,37 @@
         <v>943.9</v>
       </c>
       <c r="M55">
-        <v>438.011343622201</v>
+        <v>412.823226122201</v>
       </c>
       <c r="N55">
-        <v>505.888656377799</v>
+        <v>531.076773877799</v>
       </c>
       <c r="O55">
-        <v>111.2955044031158</v>
+        <v>116.8368902531158</v>
       </c>
       <c r="P55">
-        <v>394.5931519746832</v>
+        <v>414.2398836246833</v>
       </c>
       <c r="Q55">
-        <v>898.5931519746832</v>
+        <v>918.2398836246834</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1078590703976571</v>
+        <v>0.1059765789091213</v>
       </c>
       <c r="T55">
         <v>0.9619809398883662</v>
       </c>
       <c r="U55">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>2.154967020247184</v>
+        <v>2.286450810596091</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.09803726291526187</v>
+        <v>0.09447428722490872</v>
       </c>
       <c r="C56">
-        <v>2506.146884932127</v>
+        <v>2529.466105608778</v>
       </c>
       <c r="D56">
-        <v>5743.856884932127</v>
+        <v>5767.176105608778</v>
       </c>
       <c r="E56">
         <v>661.5100000000002</v>
@@ -5828,37 +5828,37 @@
         <v>943.9</v>
       </c>
       <c r="M56">
-        <v>446.2757085962048</v>
+        <v>420.6123435962048</v>
       </c>
       <c r="N56">
-        <v>497.6242914037952</v>
+        <v>523.2876564037952</v>
       </c>
       <c r="O56">
-        <v>109.4773441088349</v>
+        <v>115.1232844088349</v>
       </c>
       <c r="P56">
-        <v>388.1469472949602</v>
+        <v>408.1643719949602</v>
       </c>
       <c r="Q56">
-        <v>892.1469472949603</v>
+        <v>912.1643719949603</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1096261086911617</v>
+        <v>0.1078322484947419</v>
       </c>
       <c r="T56">
         <v>0.9804457924125298</v>
       </c>
       <c r="U56">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>2.11506022357594</v>
+        <v>2.244109128918386</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5877,13 +5877,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.09865316265809981</v>
+        <v>0.09509908227700538</v>
       </c>
       <c r="C57">
-        <v>2390.334178956484</v>
+        <v>2414.354116833058</v>
       </c>
       <c r="D57">
-        <v>5701.159178956485</v>
+        <v>5725.179116833058</v>
       </c>
       <c r="E57">
         <v>734.6250000000005</v>
@@ -5910,37 +5910,37 @@
         <v>943.9</v>
       </c>
       <c r="M57">
-        <v>454.5400735702086</v>
+        <v>428.4014610702086</v>
       </c>
       <c r="N57">
-        <v>489.3599264297914</v>
+        <v>515.4985389297914</v>
       </c>
       <c r="O57">
-        <v>107.6591838145541</v>
+        <v>113.4096785645541</v>
       </c>
       <c r="P57">
-        <v>381.7007426152372</v>
+        <v>402.0888603652373</v>
       </c>
       <c r="Q57">
-        <v>885.7007426152373</v>
+        <v>906.0888603652375</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1114716820199333</v>
+        <v>0.1097703922841679</v>
       </c>
       <c r="T57">
         <v>0.9997313050488786</v>
       </c>
       <c r="U57">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>2.076604583147287</v>
+        <v>2.203307144756233</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.09926906240093773</v>
+        <v>0.09572387732910201</v>
       </c>
       <c r="C58">
-        <v>2275.151586830783</v>
+        <v>2299.849356328067</v>
       </c>
       <c r="D58">
-        <v>5659.091586830784</v>
+        <v>5683.789356328068</v>
       </c>
       <c r="E58">
         <v>807.7400000000007</v>
@@ -5992,37 +5992,37 @@
         <v>943.9</v>
       </c>
       <c r="M58">
-        <v>462.8044385442124</v>
+        <v>436.1905785442124</v>
       </c>
       <c r="N58">
-        <v>481.0955614557876</v>
+        <v>507.7094214557875</v>
       </c>
       <c r="O58">
-        <v>105.8410235202733</v>
+        <v>111.6960727202733</v>
       </c>
       <c r="P58">
-        <v>375.2545379355143</v>
+        <v>396.0133487355143</v>
       </c>
       <c r="Q58">
-        <v>879.2545379355145</v>
+        <v>900.0133487355145</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1134011450454672</v>
+        <v>0.1117966335185678</v>
       </c>
       <c r="T58">
         <v>1.01989343189597</v>
       </c>
       <c r="U58">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>2.039522358448228</v>
+        <v>2.163962374314158</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6041,13 +6041,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.09988496214377565</v>
+        <v>0.09634867238119867</v>
       </c>
       <c r="C59">
-        <v>2160.585262311357</v>
+        <v>2185.938748883967</v>
       </c>
       <c r="D59">
-        <v>5617.640262311357</v>
+        <v>5642.993748883968</v>
       </c>
       <c r="E59">
         <v>880.8550000000005</v>
@@ -6074,37 +6074,37 @@
         <v>943.9</v>
       </c>
       <c r="M59">
-        <v>471.0688035182162</v>
+        <v>443.9796960182162</v>
       </c>
       <c r="N59">
-        <v>472.8311964817838</v>
+        <v>499.9203039817838</v>
       </c>
       <c r="O59">
-        <v>104.0228632259924</v>
+        <v>109.9824668759924</v>
       </c>
       <c r="P59">
-        <v>368.8083332557914</v>
+        <v>389.9378371057913</v>
       </c>
       <c r="Q59">
-        <v>872.8083332557915</v>
+        <v>893.9378371057915</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1154203505373049</v>
+        <v>0.1139171185313119</v>
       </c>
       <c r="T59">
         <v>1.040993332084788</v>
       </c>
       <c r="U59">
-        <v>0.1130324143336359</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.08816528318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>2.003741264440364</v>
+        <v>2.125998122133208</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1053867818866136</v>
+        <v>0.0969734674332953</v>
       </c>
       <c r="C60">
-        <v>1742.47244619978</v>
+        <v>2072.609592006947</v>
       </c>
       <c r="D60">
-        <v>5272.64244619978</v>
+        <v>5602.779592006947</v>
       </c>
       <c r="E60">
         <v>953.9700000000003</v>
@@ -6156,45 +6156,45 @@
         <v>943.9</v>
       </c>
       <c r="M60">
-        <v>525.13240449222</v>
+        <v>451.7688134922199</v>
       </c>
       <c r="N60">
-        <v>418.76759550778</v>
+        <v>492.1311865077801</v>
       </c>
       <c r="O60">
-        <v>92.12887101171161</v>
+        <v>108.2688610317116</v>
       </c>
       <c r="P60">
-        <v>326.6387244960684</v>
+        <v>383.8623254760685</v>
       </c>
       <c r="Q60">
-        <v>830.6387244960686</v>
+        <v>887.8623254760686</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1175357086716111</v>
+        <v>0.1161385790208533</v>
       </c>
       <c r="T60">
         <v>1.063097989425453</v>
       </c>
       <c r="U60">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y60">
-        <v>1.797451446388478</v>
+        <v>2.089342982096428</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1060869216294515</v>
+        <v>0.09759826248539194</v>
       </c>
       <c r="C61">
-        <v>1628.470167513843</v>
+        <v>1959.849542732584</v>
       </c>
       <c r="D61">
-        <v>5231.755167513843</v>
+        <v>5563.134542732584</v>
       </c>
       <c r="E61">
         <v>1027.085</v>
@@ -6238,45 +6238,45 @@
         <v>943.9</v>
       </c>
       <c r="M61">
-        <v>534.1864114662237</v>
+        <v>459.5579309662237</v>
       </c>
       <c r="N61">
-        <v>409.7135885337763</v>
+        <v>484.3420690337763</v>
       </c>
       <c r="O61">
-        <v>90.13698947743077</v>
+        <v>106.5552551874308</v>
       </c>
       <c r="P61">
-        <v>319.5765990563455</v>
+        <v>377.7868138463455</v>
       </c>
       <c r="Q61">
-        <v>823.5765990563456</v>
+        <v>881.7868138463456</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1197542550075908</v>
+        <v>0.1184684034367138</v>
       </c>
       <c r="T61">
         <v>1.086280922733956</v>
       </c>
       <c r="U61">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y61">
-        <v>1.766986167636131</v>
+        <v>2.05393038917954</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1067870613722895</v>
+        <v>0.09822305753748858</v>
       </c>
       <c r="C62">
-        <v>1515.097138929025</v>
+        <v>1847.646604995155</v>
       </c>
       <c r="D62">
-        <v>5191.497138929025</v>
+        <v>5524.046604995155</v>
       </c>
       <c r="E62">
         <v>1100.2</v>
@@ -6320,45 +6320,45 @@
         <v>943.9</v>
       </c>
       <c r="M62">
-        <v>543.2404184402275</v>
+        <v>467.3470484402275</v>
       </c>
       <c r="N62">
-        <v>400.6595815597725</v>
+        <v>476.5529515597725</v>
       </c>
       <c r="O62">
-        <v>88.14510794314995</v>
+        <v>104.84164934315</v>
       </c>
       <c r="P62">
-        <v>312.5144736166226</v>
+        <v>371.7113022166226</v>
       </c>
       <c r="Q62">
-        <v>816.5144736166227</v>
+        <v>875.7113022166227</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1220837286603696</v>
+        <v>0.1209147190733674</v>
       </c>
       <c r="T62">
         <v>1.110623002707884</v>
       </c>
       <c r="U62">
-        <v>0.123832414333636</v>
+        <v>0.1065324143336359</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.09658928318023605</v>
+        <v>0.08309528318023604</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>B2/B</t>
         </is>
       </c>
       <c r="Y62">
-        <v>1.737536398175529</v>
+        <v>2.019698216026548</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1074872011151274</v>
+        <v>0.1039864925895852</v>
       </c>
       <c r="C63">
-        <v>1402.338945248922</v>
+        <v>1438.290574601909</v>
       </c>
       <c r="D63">
-        <v>5151.853945248922</v>
+        <v>5187.805574601909</v>
       </c>
       <c r="E63">
         <v>1173.315000000001</v>
@@ -6402,37 +6402,37 @@
         <v>943.9</v>
       </c>
       <c r="M63">
-        <v>552.2944254142315</v>
+        <v>523.3043279142314</v>
       </c>
       <c r="N63">
-        <v>391.6055745857685</v>
+        <v>420.5956720857686</v>
       </c>
       <c r="O63">
-        <v>86.15322640886907</v>
+        <v>92.53104785886909</v>
       </c>
       <c r="P63">
-        <v>305.4523481768995</v>
+        <v>328.0646242268995</v>
       </c>
       <c r="Q63">
-        <v>809.4523481768996</v>
+        <v>832.0646242268996</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1245326625004702</v>
+        <v>0.1234864867939519</v>
       </c>
       <c r="T63">
         <v>1.136213394475347</v>
       </c>
       <c r="U63">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>1.709052194926749</v>
+        <v>1.803730543873322</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1081873408579653</v>
+        <v>0.1046955276416819</v>
       </c>
       <c r="C64">
-        <v>1290.181608248331</v>
+        <v>1326.616785874712</v>
       </c>
       <c r="D64">
-        <v>5112.811608248331</v>
+        <v>5149.246785874712</v>
       </c>
       <c r="E64">
         <v>1246.43</v>
@@ -6484,37 +6484,37 @@
         <v>943.9</v>
       </c>
       <c r="M64">
-        <v>561.3484323882352</v>
+        <v>531.8830873882351</v>
       </c>
       <c r="N64">
-        <v>382.5515676117648</v>
+        <v>412.0169126117648</v>
       </c>
       <c r="O64">
-        <v>84.16134487458825</v>
+        <v>90.64372077458826</v>
       </c>
       <c r="P64">
-        <v>298.3902227371765</v>
+        <v>321.3731918371766</v>
       </c>
       <c r="Q64">
-        <v>802.3902227371766</v>
+        <v>825.3731918371767</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1271104875953131</v>
+        <v>0.1261936107103566</v>
       </c>
       <c r="T64">
         <v>1.163150648967413</v>
       </c>
       <c r="U64">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>1.68148683694406</v>
+        <v>1.774638115746333</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1088874806008032</v>
+        <v>0.1054045626937785</v>
       </c>
       <c r="C65">
-        <v>1178.611570240279</v>
+        <v>1215.511951045386</v>
       </c>
       <c r="D65">
-        <v>5074.356570240278</v>
+        <v>5111.256951045386</v>
       </c>
       <c r="E65">
         <v>1319.545</v>
@@ -6566,37 +6566,37 @@
         <v>943.9</v>
       </c>
       <c r="M65">
-        <v>570.402439362239</v>
+        <v>540.4618468622389</v>
       </c>
       <c r="N65">
-        <v>373.497560637761</v>
+        <v>403.4381531377611</v>
       </c>
       <c r="O65">
-        <v>82.16946334030742</v>
+        <v>88.75639369030745</v>
       </c>
       <c r="P65">
-        <v>291.3280972974536</v>
+        <v>314.6817594474537</v>
       </c>
       <c r="Q65">
-        <v>795.3280972974537</v>
+        <v>818.6817594474537</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.1298276545871744</v>
+        <v>0.1290470656492697</v>
       </c>
       <c r="T65">
         <v>1.191543971269861</v>
       </c>
       <c r="U65">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>1.654796569690979</v>
+        <v>1.746469256766233</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1095876203436412</v>
+        <v>0.1061135977458752</v>
       </c>
       <c r="C66">
-        <v>1067.615678379088</v>
+        <v>1104.963569547918</v>
       </c>
       <c r="D66">
-        <v>5036.475678379087</v>
+        <v>5073.823569547918</v>
       </c>
       <c r="E66">
         <v>1392.66</v>
@@ -6648,37 +6648,37 @@
         <v>943.9</v>
       </c>
       <c r="M66">
-        <v>579.4564463362427</v>
+        <v>549.0406063362427</v>
       </c>
       <c r="N66">
-        <v>364.4435536637573</v>
+        <v>394.8593936637573</v>
       </c>
       <c r="O66">
-        <v>80.17758180602659</v>
+        <v>86.86906660602659</v>
       </c>
       <c r="P66">
-        <v>284.2659718577307</v>
+        <v>307.9903270577307</v>
       </c>
       <c r="Q66">
-        <v>788.2659718577308</v>
+        <v>811.9903270577308</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1326957753008058</v>
+        <v>0.1320590458625669</v>
       </c>
       <c r="T66">
         <v>1.221514700366889</v>
       </c>
       <c r="U66">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>1.628940373289558</v>
+        <v>1.719180674629261</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1102877600864791</v>
+        <v>0.1068226327979718</v>
       </c>
       <c r="C67">
-        <v>957.1811696613167</v>
+        <v>994.9595043560848</v>
       </c>
       <c r="D67">
-        <v>4999.156169661317</v>
+        <v>5036.934504356085</v>
       </c>
       <c r="E67">
         <v>1465.775000000001</v>
@@ -6730,37 +6730,37 @@
         <v>943.9</v>
       </c>
       <c r="M67">
-        <v>588.5104533102466</v>
+        <v>557.6193658102466</v>
       </c>
       <c r="N67">
-        <v>355.3895466897534</v>
+        <v>386.2806341897534</v>
       </c>
       <c r="O67">
-        <v>78.18570027174574</v>
+        <v>84.98173952174575</v>
       </c>
       <c r="P67">
-        <v>277.2038464180076</v>
+        <v>301.2988946680077</v>
       </c>
       <c r="Q67">
-        <v>781.2038464180077</v>
+        <v>805.2988946680077</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1357277886266448</v>
+        <v>0.1352431392309096</v>
       </c>
       <c r="T67">
         <v>1.253198042555177</v>
       </c>
       <c r="U67">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>1.603879752162026</v>
+        <v>1.692731741173426</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.110987899829317</v>
+        <v>0.1075316678500684</v>
       </c>
       <c r="C68">
-        <v>847.2956565886534</v>
+        <v>885.48796886333</v>
       </c>
       <c r="D68">
-        <v>4962.385656588654</v>
+        <v>5000.57796886333</v>
       </c>
       <c r="E68">
         <v>1538.89</v>
@@ -6812,37 +6812,37 @@
         <v>943.9</v>
       </c>
       <c r="M68">
-        <v>597.5644602842503</v>
+        <v>566.1981252842503</v>
       </c>
       <c r="N68">
-        <v>346.3355397157496</v>
+        <v>377.7018747157497</v>
       </c>
       <c r="O68">
-        <v>76.19381873746492</v>
+        <v>83.09441243746492</v>
       </c>
       <c r="P68">
-        <v>270.1417209782847</v>
+        <v>294.6074622782847</v>
       </c>
       <c r="Q68">
-        <v>774.1417209782849</v>
+        <v>798.6074622782849</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1389381556775331</v>
+        <v>0.1386145322091549</v>
       </c>
       <c r="T68">
         <v>1.28674511075454</v>
       </c>
       <c r="U68">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>1.579578543795935</v>
+        <v>1.667084290549586</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.111688039572155</v>
+        <v>0.1082407029021651</v>
       </c>
       <c r="C69">
-        <v>737.9471134588839</v>
+        <v>776.5375143267656</v>
       </c>
       <c r="D69">
-        <v>4926.152113458884</v>
+        <v>4964.742514326766</v>
       </c>
       <c r="E69">
         <v>1612.005</v>
@@ -6894,37 +6894,37 @@
         <v>943.9</v>
       </c>
       <c r="M69">
-        <v>606.6184672582541</v>
+        <v>574.776884758254</v>
       </c>
       <c r="N69">
-        <v>337.2815327417459</v>
+        <v>369.1231152417459</v>
       </c>
       <c r="O69">
-        <v>74.20193720318409</v>
+        <v>81.20708535318411</v>
       </c>
       <c r="P69">
-        <v>263.0795955385618</v>
+        <v>287.9160298885619</v>
       </c>
       <c r="Q69">
-        <v>767.0795955385619</v>
+        <v>791.916029888562</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1423430904284752</v>
+        <v>0.1421902520345665</v>
       </c>
       <c r="T69">
         <v>1.322325334602349</v>
       </c>
       <c r="U69">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>1.556002744634802</v>
+        <v>1.642202435466757</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1123881793149929</v>
+        <v>0.1089497379542617</v>
       </c>
       <c r="C70">
-        <v>629.123863253134</v>
+        <v>668.0970178472071</v>
       </c>
       <c r="D70">
-        <v>4890.443863253135</v>
+        <v>4929.417017847208</v>
       </c>
       <c r="E70">
         <v>1685.120000000001</v>
@@ -6976,37 +6976,37 @@
         <v>943.9</v>
       </c>
       <c r="M70">
-        <v>615.672474232258</v>
+        <v>583.355644232258</v>
       </c>
       <c r="N70">
-        <v>328.227525767742</v>
+        <v>360.544355767742</v>
       </c>
       <c r="O70">
-        <v>72.21005566890324</v>
+        <v>79.31975826890324</v>
       </c>
       <c r="P70">
-        <v>256.0174700988388</v>
+        <v>281.2245974988388</v>
       </c>
       <c r="Q70">
-        <v>760.0174700988389</v>
+        <v>785.2245974988389</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1459608336013512</v>
+        <v>0.1459894543490663</v>
       </c>
       <c r="T70">
         <v>1.360129322440646</v>
       </c>
       <c r="U70">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>1.533120351331349</v>
+        <v>1.618052399651068</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7025,13 +7025,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1130883190578308</v>
+        <v>0.1096587730063584</v>
       </c>
       <c r="C71">
-        <v>520.8145650892802</v>
+        <v>560.1556708587486</v>
       </c>
       <c r="D71">
-        <v>4855.249565089281</v>
+        <v>4894.590670858749</v>
       </c>
       <c r="E71">
         <v>1758.235000000001</v>
@@ -7058,37 +7058,37 @@
         <v>943.9</v>
       </c>
       <c r="M71">
-        <v>624.7264812062617</v>
+        <v>591.9344037062617</v>
       </c>
       <c r="N71">
-        <v>319.1735187937383</v>
+        <v>351.9655962937383</v>
       </c>
       <c r="O71">
-        <v>70.21817413462242</v>
+        <v>77.43243118462242</v>
       </c>
       <c r="P71">
-        <v>248.9553446591158</v>
+        <v>274.5331651091158</v>
       </c>
       <c r="Q71">
-        <v>752.955344659116</v>
+        <v>778.533165109116</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1498119795595741</v>
+        <v>0.1500337664903081</v>
       </c>
       <c r="T71">
         <v>1.400372277236253</v>
       </c>
       <c r="U71">
-        <v>0.123832414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.09658928318023605</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>1.510901215804807</v>
+        <v>1.594602364873517</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1357922588006688</v>
+        <v>0.110367808058455</v>
       </c>
       <c r="C72">
-        <v>-470.9704779953054</v>
+        <v>452.7029681028243</v>
       </c>
       <c r="D72">
-        <v>3936.579522004695</v>
+        <v>4860.252968102825</v>
       </c>
       <c r="E72">
         <v>1831.35</v>
@@ -7140,45 +7140,45 @@
         <v>943.9</v>
       </c>
       <c r="M72">
-        <v>840.0379031802655</v>
+        <v>600.5131631802655</v>
       </c>
       <c r="N72">
-        <v>103.8620968197345</v>
+        <v>343.3868368197345</v>
       </c>
       <c r="O72">
-        <v>22.84966130034158</v>
+        <v>75.54510410034159</v>
       </c>
       <c r="P72">
-        <v>81.01243551939288</v>
+        <v>267.841732719393</v>
       </c>
       <c r="Q72">
-        <v>585.012435519393</v>
+        <v>771.8417327193931</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.1539198685816784</v>
+        <v>0.154347699440966</v>
       </c>
       <c r="T72">
         <v>1.4432980956849</v>
       </c>
       <c r="U72">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y72">
-        <v>1.123639774379855</v>
+        <v>1.57182233108961</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1368067385435067</v>
+        <v>0.1110768431105516</v>
       </c>
       <c r="C73">
-        <v>-577.0884349315293</v>
+        <v>345.7286970631603</v>
       </c>
       <c r="D73">
-        <v>3903.576565068471</v>
+        <v>4826.39369706316</v>
       </c>
       <c r="E73">
         <v>1904.465</v>
@@ -7222,45 +7222,45 @@
         <v>943.9</v>
       </c>
       <c r="M73">
-        <v>852.0384446542693</v>
+        <v>609.0919226542693</v>
       </c>
       <c r="N73">
-        <v>91.86155534573072</v>
+        <v>334.8080773457307</v>
       </c>
       <c r="O73">
-        <v>20.20954217606076</v>
+        <v>73.65777701606075</v>
       </c>
       <c r="P73">
-        <v>71.65201316966997</v>
+        <v>261.1503003296699</v>
       </c>
       <c r="Q73">
-        <v>575.6520131696701</v>
+        <v>765.15030032967</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.1583110602949624</v>
+        <v>0.1589591450089105</v>
       </c>
       <c r="T73">
         <v>1.489184315405867</v>
       </c>
       <c r="U73">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y73">
-        <v>1.107813862064646</v>
+        <v>1.549683988398207</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1378212182863446</v>
+        <v>0.1117858781626483</v>
       </c>
       <c r="C74">
-        <v>-682.6576212238333</v>
+        <v>239.2229278392761</v>
       </c>
       <c r="D74">
-        <v>3871.122378776166</v>
+        <v>4793.002927839276</v>
       </c>
       <c r="E74">
         <v>1977.58</v>
@@ -7304,45 +7304,45 @@
         <v>943.9</v>
       </c>
       <c r="M74">
-        <v>864.038986128273</v>
+        <v>617.670682128273</v>
       </c>
       <c r="N74">
-        <v>79.86101387172698</v>
+        <v>326.2293178717269</v>
       </c>
       <c r="O74">
-        <v>17.56942305177994</v>
+        <v>71.77044993177994</v>
       </c>
       <c r="P74">
-        <v>62.29159081994705</v>
+        <v>254.458867939947</v>
       </c>
       <c r="Q74">
-        <v>566.2915908199471</v>
+        <v>758.4588679399471</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.1630159085591952</v>
+        <v>0.1638999795459941</v>
       </c>
       <c r="T74">
         <v>1.538348122249761</v>
       </c>
       <c r="U74">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y74">
-        <v>1.092427558424859</v>
+        <v>1.528160599670454</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1388356980291826</v>
+        <v>0.1124949132147449</v>
       </c>
       <c r="C75">
-        <v>-787.6916113886509</v>
+        <v>133.1760034374602</v>
       </c>
       <c r="D75">
-        <v>3839.203388611349</v>
+        <v>4760.07100343746</v>
       </c>
       <c r="E75">
         <v>2050.695</v>
@@ -7386,45 +7386,45 @@
         <v>943.9</v>
       </c>
       <c r="M75">
-        <v>876.0395276022768</v>
+        <v>626.2494416022768</v>
       </c>
       <c r="N75">
-        <v>67.86047239772313</v>
+        <v>317.6505583977232</v>
       </c>
       <c r="O75">
-        <v>14.92930392749909</v>
+        <v>69.88312284749911</v>
       </c>
       <c r="P75">
-        <v>52.93116847022404</v>
+        <v>247.7674355502241</v>
       </c>
       <c r="Q75">
-        <v>556.9311684702242</v>
+        <v>751.7674355502243</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.1680692641022601</v>
+        <v>0.1692068018265653</v>
       </c>
       <c r="T75">
         <v>1.591153692563573</v>
       </c>
       <c r="U75">
-        <v>0.164132414333636</v>
+        <v>0.1173324143336359</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.1280232831802361</v>
+        <v>0.09151928318023604</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>B3/B-</t>
         </is>
       </c>
       <c r="Y75">
-        <v>1.077462797350546</v>
+        <v>1.507226892825653</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7435,13 +7435,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1398501777720205</v>
+        <v>0.1364651082668416</v>
       </c>
       <c r="C76">
-        <v>-892.2035358939811</v>
+        <v>-837.1963651073747</v>
       </c>
       <c r="D76">
-        <v>3807.806464106019</v>
+        <v>3862.813634892625</v>
       </c>
       <c r="E76">
         <v>2123.81</v>
@@ -7468,37 +7468,37 @@
         <v>943.9</v>
       </c>
       <c r="M76">
-        <v>888.0400690762807</v>
+        <v>852.8717540762807</v>
       </c>
       <c r="N76">
-        <v>55.85993092371928</v>
+        <v>91.02824592371928</v>
       </c>
       <c r="O76">
-        <v>12.28918480321824</v>
+        <v>20.02621410321824</v>
       </c>
       <c r="P76">
-        <v>43.57074612050103</v>
+        <v>71.00203182050105</v>
       </c>
       <c r="Q76">
-        <v>547.5707461205011</v>
+        <v>575.0020318205012</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.1735113393024839</v>
+        <v>0.1749218412056419</v>
       </c>
       <c r="T76">
         <v>1.648021229824602</v>
       </c>
       <c r="U76">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>1.062902489278241</v>
+        <v>1.106731458145556</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1408646575148584</v>
+        <v>0.1374884833189382</v>
       </c>
       <c r="C77">
-        <v>-996.2060991691942</v>
+        <v>-941.1496042572398</v>
       </c>
       <c r="D77">
-        <v>3776.918900830806</v>
+        <v>3831.975395742761</v>
       </c>
       <c r="E77">
         <v>2196.925</v>
@@ -7550,37 +7550,37 @@
         <v>943.9</v>
       </c>
       <c r="M77">
-        <v>900.0406105502844</v>
+        <v>864.3970480502844</v>
       </c>
       <c r="N77">
-        <v>43.85938944971554</v>
+        <v>79.50295194971557</v>
       </c>
       <c r="O77">
-        <v>9.649065678937419</v>
+        <v>17.49064942893742</v>
       </c>
       <c r="P77">
-        <v>34.21032377077812</v>
+        <v>62.01230252077814</v>
       </c>
       <c r="Q77">
-        <v>538.2103237707782</v>
+        <v>566.0123025207782</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.1793887805187255</v>
+        <v>0.1810940837350448</v>
       </c>
       <c r="T77">
         <v>1.709438170066512</v>
       </c>
       <c r="U77">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>1.048730456087865</v>
+        <v>1.091975038703615</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1418791372576964</v>
+        <v>0.1385118583710349</v>
       </c>
       <c r="C78">
-        <v>-1099.711596745355</v>
+        <v>-1044.614357520523</v>
       </c>
       <c r="D78">
-        <v>3746.528403254645</v>
+        <v>3801.625642479476</v>
       </c>
       <c r="E78">
         <v>2270.04</v>
@@ -7632,37 +7632,37 @@
         <v>943.9</v>
       </c>
       <c r="M78">
-        <v>912.0411520242882</v>
+        <v>875.9223420242882</v>
       </c>
       <c r="N78">
-        <v>31.8588479757118</v>
+        <v>67.97765797571174</v>
       </c>
       <c r="O78">
-        <v>7.008946554656595</v>
+        <v>14.95508475465658</v>
       </c>
       <c r="P78">
-        <v>24.8499014210552</v>
+        <v>53.02257322105515</v>
       </c>
       <c r="Q78">
-        <v>528.8499014210553</v>
+        <v>557.0225732210553</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.1857560085029873</v>
+        <v>0.1877806798085645</v>
       </c>
       <c r="T78">
         <v>1.775973188661916</v>
       </c>
       <c r="U78">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>1.03493137113934</v>
+        <v>1.077606946089094</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1428936170005343</v>
+        <v>0.1395352334231315</v>
       </c>
       <c r="C79">
-        <v>-1202.731931574662</v>
+        <v>-1147.602140312599</v>
       </c>
       <c r="D79">
-        <v>3716.623068425338</v>
+        <v>3771.752859687402</v>
       </c>
       <c r="E79">
         <v>2343.155000000001</v>
@@ -7714,37 +7714,37 @@
         <v>943.9</v>
       </c>
       <c r="M79">
-        <v>924.0416934982921</v>
+        <v>887.4476359982921</v>
       </c>
       <c r="N79">
-        <v>19.85830650170783</v>
+        <v>56.45236400170791</v>
       </c>
       <c r="O79">
-        <v>4.368827430375722</v>
+        <v>12.41952008037574</v>
       </c>
       <c r="P79">
-        <v>15.48947907133211</v>
+        <v>44.03284392133217</v>
       </c>
       <c r="Q79">
-        <v>519.4894790713322</v>
+        <v>548.0328439213323</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.1926769084858805</v>
+        <v>0.195048719018912</v>
       </c>
       <c r="T79">
         <v>1.848293861048224</v>
       </c>
       <c r="U79">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>1.021490703981686</v>
+        <v>1.063612050685339</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1439080967433722</v>
+        <v>0.1405586084752282</v>
       </c>
       <c r="C80">
-        <v>-1305.278629574475</v>
+        <v>-1250.124108923018</v>
       </c>
       <c r="D80">
-        <v>3687.191370425525</v>
+        <v>3742.345891076983</v>
       </c>
       <c r="E80">
         <v>2416.27</v>
@@ -7796,37 +7796,37 @@
         <v>943.9</v>
       </c>
       <c r="M80">
-        <v>936.0422349722959</v>
+        <v>898.9729299722959</v>
       </c>
       <c r="N80">
-        <v>7.85776502770409</v>
+        <v>44.92707002770408</v>
       </c>
       <c r="O80">
-        <v>1.7287083060949</v>
+        <v>9.883955406094897</v>
       </c>
       <c r="P80">
-        <v>6.12905672160919</v>
+        <v>35.04311462160918</v>
       </c>
       <c r="Q80">
-        <v>510.1290567216093</v>
+        <v>539.0431146216093</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2002269811944913</v>
+        <v>0.2029774890665638</v>
       </c>
       <c r="T80">
         <v>1.927189140015105</v>
       </c>
       <c r="U80">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.1280232831802361</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>1.008394669315254</v>
+        <v>1.049975998753476</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1450844289779141</v>
+        <v>0.1415819835273248</v>
       </c>
       <c r="C81">
-        <v>-1411.942619953642</v>
+        <v>-1352.191074407066</v>
       </c>
       <c r="D81">
-        <v>3653.642380046358</v>
+        <v>3713.393925592934</v>
       </c>
       <c r="E81">
         <v>2489.385</v>
@@ -7878,37 +7878,37 @@
         <v>943.9</v>
       </c>
       <c r="M81">
-        <v>948.0427764462996</v>
+        <v>910.4982239462996</v>
       </c>
       <c r="N81">
-        <v>-4.142776446299649</v>
+        <v>33.40177605370036</v>
       </c>
       <c r="O81">
-        <v>-0.9114108181859228</v>
+        <v>7.348390731814079</v>
       </c>
       <c r="P81">
-        <v>-3.231365628113727</v>
+        <v>26.05338532188628</v>
       </c>
       <c r="Q81">
-        <v>500.7686343718864</v>
+        <v>530.0533853218864</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2086732421043948</v>
+        <v>0.2116613800711349</v>
       </c>
       <c r="T81">
-        <v>2.015449231862156</v>
+        <v>2.01359825507407</v>
       </c>
       <c r="U81">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V81">
-        <v>0.2190386395626553</v>
+        <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.1281810735898623</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.9956301798302513</v>
+        <v>1.036685163326217</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7927,13 +7927,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1465677531212505</v>
+        <v>0.1426053585794214</v>
       </c>
       <c r="C82">
-        <v>-1526.501598488739</v>
+        <v>-1453.813515837448</v>
       </c>
       <c r="D82">
-        <v>3612.198401511262</v>
+        <v>3684.886484162552</v>
       </c>
       <c r="E82">
         <v>2562.500000000001</v>
@@ -7960,37 +7960,37 @@
         <v>943.9</v>
       </c>
       <c r="M82">
-        <v>960.0433179203036</v>
+        <v>922.0235179203036</v>
       </c>
       <c r="N82">
-        <v>-16.14331792030362</v>
+        <v>21.87648207969642</v>
       </c>
       <c r="O82">
-        <v>-3.551529942466796</v>
+        <v>4.812826057533211</v>
       </c>
       <c r="P82">
-        <v>-12.59178797783682</v>
+        <v>17.0636560221632</v>
       </c>
       <c r="Q82">
-        <v>491.4082120221633</v>
+        <v>521.0636560221633</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2183169042096146</v>
+        <v>0.2212136601761631</v>
       </c>
       <c r="T82">
-        <v>2.116221693455264</v>
+        <v>2.108648281638932</v>
       </c>
       <c r="U82">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V82">
-        <v>0.2163006565681221</v>
+        <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.1286304653491595</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.983184802582373</v>
+        <v>1.023726598784639</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1480510772645868</v>
+        <v>0.1436287336315181</v>
       </c>
       <c r="C83">
-        <v>-1640.130908166255</v>
+        <v>-1555.001592950231</v>
       </c>
       <c r="D83">
-        <v>3571.684091833746</v>
+        <v>3656.81340704977</v>
       </c>
       <c r="E83">
         <v>2635.615000000001</v>
@@ -8042,37 +8042,37 @@
         <v>943.9</v>
       </c>
       <c r="M83">
-        <v>972.0438593943073</v>
+        <v>933.5488118943073</v>
       </c>
       <c r="N83">
-        <v>-28.14385939430736</v>
+        <v>10.3511881056927</v>
       </c>
       <c r="O83">
-        <v>-6.191649066747618</v>
+        <v>2.277261383252394</v>
       </c>
       <c r="P83">
-        <v>-21.95221032755974</v>
+        <v>8.073926722440305</v>
       </c>
       <c r="Q83">
-        <v>482.0477896724404</v>
+        <v>512.0739267224404</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.2289756886416996</v>
+        <v>0.2317714434501415</v>
       </c>
       <c r="T83">
-        <v>2.227601782584488</v>
+        <v>2.21370357415799</v>
       </c>
       <c r="U83">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V83">
-        <v>0.2136302780919724</v>
+        <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.1290687610156345</v>
+        <v>0.122953283180236</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.9710467185998746</v>
+        <v>1.011087998799644</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1495344014079232</v>
+        <v>0.1446989646621578</v>
       </c>
       <c r="C84">
-        <v>-1752.861483440916</v>
+        <v>-1657.021061985495</v>
       </c>
       <c r="D84">
-        <v>3532.068516559084</v>
+        <v>3627.908938014506</v>
       </c>
       <c r="E84">
         <v>2708.73</v>
@@ -8124,37 +8124,37 @@
         <v>943.9</v>
       </c>
       <c r="M84">
-        <v>984.0444008683111</v>
+        <v>945.074105868311</v>
       </c>
       <c r="N84">
-        <v>-40.1444008683111</v>
+        <v>-1.174105868311017</v>
       </c>
       <c r="O84">
-        <v>-8.831768191028441</v>
+        <v>-0.2583032910284237</v>
       </c>
       <c r="P84">
-        <v>-31.31263267728265</v>
+        <v>-0.9158025772825931</v>
       </c>
       <c r="Q84">
-        <v>472.6873673227175</v>
+        <v>503.0841974227175</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.2408187824551274</v>
+        <v>0.2435663560897642</v>
       </c>
       <c r="T84">
-        <v>2.351357437172516</v>
+        <v>2.331068930638295</v>
       </c>
       <c r="U84">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V84">
-        <v>0.2110250307981679</v>
+        <v>0.2197266846171908</v>
       </c>
       <c r="W84">
-        <v>0.1294963665439028</v>
+        <v>0.1229963665439028</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.9592046854462176</v>
+        <v>0.9987576573508674</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1510177255512596</v>
+        <v>0.1461822888054942</v>
       </c>
       <c r="C85">
-        <v>-1864.722901376665</v>
+        <v>-1769.449876537714</v>
       </c>
       <c r="D85">
-        <v>3493.322098623335</v>
+        <v>3588.595123462286</v>
       </c>
       <c r="E85">
         <v>2781.845</v>
@@ -8206,37 +8206,37 @@
         <v>943.9</v>
       </c>
       <c r="M85">
-        <v>996.0449423423148</v>
+        <v>956.5993998423148</v>
       </c>
       <c r="N85">
-        <v>-52.14494234231483</v>
+        <v>-12.69939984231485</v>
       </c>
       <c r="O85">
-        <v>-11.47188731530926</v>
+        <v>-2.793867965309266</v>
       </c>
       <c r="P85">
-        <v>-40.67305502700557</v>
+        <v>-9.905531877005581</v>
       </c>
       <c r="Q85">
-        <v>463.3269449729945</v>
+        <v>494.0944681229946</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.254055181423076</v>
+        <v>0.2573467299773974</v>
       </c>
       <c r="T85">
-        <v>2.489672580535605</v>
+        <v>2.468190632440548</v>
       </c>
       <c r="U85">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V85">
-        <v>0.2084825605475876</v>
+        <v>0.2170793751639717</v>
       </c>
       <c r="W85">
-        <v>0.129913668324502</v>
+        <v>0.123413668324502</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.9476480024890344</v>
+        <v>0.9867244325635076</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1525010496945959</v>
+        <v>0.1476656129488305</v>
       </c>
       <c r="C86">
-        <v>-1975.743455290952</v>
+        <v>-1881.035777463505</v>
       </c>
       <c r="D86">
-        <v>3455.416544709048</v>
+        <v>3550.124222536495</v>
       </c>
       <c r="E86">
         <v>2854.96</v>
@@ -8288,37 +8288,37 @@
         <v>943.9</v>
       </c>
       <c r="M86">
-        <v>1008.045483816319</v>
+        <v>968.1246938163185</v>
       </c>
       <c r="N86">
-        <v>-64.14548381631857</v>
+        <v>-24.22469381631856</v>
       </c>
       <c r="O86">
-        <v>-14.11200643959009</v>
+        <v>-5.329432639590084</v>
       </c>
       <c r="P86">
-        <v>-50.03347737672848</v>
+        <v>-18.89526117672848</v>
       </c>
       <c r="Q86">
-        <v>453.9665226232717</v>
+        <v>485.1047388232716</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.2689461302620181</v>
+        <v>0.2728496506009845</v>
       </c>
       <c r="T86">
-        <v>2.645277116819079</v>
+        <v>2.622452546968081</v>
       </c>
       <c r="U86">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V86">
-        <v>0.2060006253029734</v>
+        <v>0.2144950968882101</v>
       </c>
       <c r="W86">
-        <v>0.1303210343484202</v>
+        <v>0.1238210343484202</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.9363664786498792</v>
+        <v>0.9749777131282278</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1539843738379323</v>
+        <v>0.1491489370921669</v>
       </c>
       <c r="C87">
-        <v>-2085.950223655893</v>
+        <v>-1991.805586149401</v>
       </c>
       <c r="D87">
-        <v>3418.324776344107</v>
+        <v>3512.469413850598</v>
       </c>
       <c r="E87">
         <v>2928.075</v>
@@ -8370,37 +8370,37 @@
         <v>943.9</v>
       </c>
       <c r="M87">
-        <v>1020.046025290322</v>
+        <v>979.6499877903223</v>
       </c>
       <c r="N87">
-        <v>-76.14602529032231</v>
+        <v>-35.74998779032228</v>
       </c>
       <c r="O87">
-        <v>-16.75212556387091</v>
+        <v>-7.864997313870902</v>
       </c>
       <c r="P87">
-        <v>-59.39389972645141</v>
+        <v>-27.88499047645138</v>
       </c>
       <c r="Q87">
-        <v>444.6061002735487</v>
+        <v>476.1150095235487</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.2858225389461527</v>
+        <v>0.2904196273077169</v>
       </c>
       <c r="T87">
-        <v>2.821628924607018</v>
+        <v>2.797282716765953</v>
       </c>
       <c r="U87">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V87">
-        <v>0.2035770885347032</v>
+        <v>0.2119716251601135</v>
       </c>
       <c r="W87">
-        <v>0.1307188152894228</v>
+        <v>0.1242188152894228</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.9253504024304688</v>
+        <v>0.9635073870914251</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.1554676979812686</v>
+        <v>0.1506322612355033</v>
       </c>
       <c r="C88">
-        <v>-2195.369134608846</v>
+        <v>-2101.784997988208</v>
       </c>
       <c r="D88">
-        <v>3382.020865391154</v>
+        <v>3475.605002011793</v>
       </c>
       <c r="E88">
         <v>3001.190000000001</v>
@@ -8452,37 +8452,37 @@
         <v>943.9</v>
       </c>
       <c r="M88">
-        <v>1032.046566764326</v>
+        <v>991.1752817643262</v>
       </c>
       <c r="N88">
-        <v>-88.14656676432617</v>
+        <v>-47.27528176432622</v>
       </c>
       <c r="O88">
-        <v>-19.39224468815176</v>
+        <v>-10.40056198815177</v>
       </c>
       <c r="P88">
-        <v>-68.75432207617442</v>
+        <v>-36.87471977617445</v>
       </c>
       <c r="Q88">
-        <v>435.2456779238257</v>
+        <v>467.1252802238257</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.3051098631565921</v>
+        <v>0.3104996006868396</v>
       </c>
       <c r="T88">
-        <v>3.023173847793233</v>
+        <v>2.997088625106378</v>
       </c>
       <c r="U88">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V88">
-        <v>0.2012099130866252</v>
+        <v>0.2095068388210424</v>
       </c>
       <c r="W88">
-        <v>0.1311073455108671</v>
+        <v>0.1246073455108671</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.9145905140301145</v>
+        <v>0.9523038128229201</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.156951022124605</v>
+        <v>0.1521155853788396</v>
       </c>
       <c r="C89">
-        <v>-2304.025026395471</v>
+        <v>-2210.998640853474</v>
       </c>
       <c r="D89">
-        <v>3346.479973604529</v>
+        <v>3439.506359146526</v>
       </c>
       <c r="E89">
         <v>3074.305</v>
@@ -8534,37 +8534,37 @@
         <v>943.9</v>
       </c>
       <c r="M89">
-        <v>1044.04710823833</v>
+        <v>1002.70057573833</v>
       </c>
       <c r="N89">
-        <v>-100.1471082383301</v>
+        <v>-58.80057573832994</v>
       </c>
       <c r="O89">
-        <v>-22.03236381243263</v>
+        <v>-12.93612666243259</v>
       </c>
       <c r="P89">
-        <v>-78.1147444258975</v>
+        <v>-45.86444907589735</v>
       </c>
       <c r="Q89">
-        <v>425.8852555741026</v>
+        <v>458.1355509241027</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.3273644680147915</v>
+        <v>0.3336688007396734</v>
       </c>
       <c r="T89">
-        <v>3.255725682238866</v>
+        <v>3.227633903960715</v>
       </c>
       <c r="U89">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V89">
-        <v>0.1988971554649398</v>
+        <v>0.2070987142368925</v>
       </c>
       <c r="W89">
-        <v>0.1314869440030829</v>
+        <v>0.1249869440030828</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.9040779793860901</v>
+        <v>0.9413577919858751</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.1584343462679413</v>
+        <v>0.153598909522176</v>
       </c>
       <c r="C90">
-        <v>-2411.941704041291</v>
+        <v>-2319.47012996746</v>
       </c>
       <c r="D90">
-        <v>3311.678295958709</v>
+        <v>3404.14987003254</v>
       </c>
       <c r="E90">
         <v>3147.42</v>
@@ -8616,37 +8616,37 @@
         <v>943.9</v>
       </c>
       <c r="M90">
-        <v>1056.047649712334</v>
+        <v>1014.225869712334</v>
       </c>
       <c r="N90">
-        <v>-112.1476497123339</v>
+        <v>-70.32586971233377</v>
       </c>
       <c r="O90">
-        <v>-24.67248293671345</v>
+        <v>-15.47169133671343</v>
       </c>
       <c r="P90">
-        <v>-87.47516677562042</v>
+        <v>-54.85417837562034</v>
       </c>
       <c r="Q90">
-        <v>416.5248332243797</v>
+        <v>449.1458216243798</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.3533281736826909</v>
+        <v>0.3606995341346462</v>
       </c>
       <c r="T90">
-        <v>3.527036155758772</v>
+        <v>3.496603395957442</v>
       </c>
       <c r="U90">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V90">
-        <v>0.1966369605164746</v>
+        <v>0.2047453197569278</v>
       </c>
       <c r="W90">
-        <v>0.1318579152568391</v>
+        <v>0.1253579152568391</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.8938043659839755</v>
+        <v>0.9306605443496719</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.1599176704112777</v>
+        <v>0.1550822336655123</v>
       </c>
       <c r="C91">
-        <v>-2519.141992523544</v>
+        <v>-2427.222119419413</v>
       </c>
       <c r="D91">
-        <v>3277.593007476456</v>
+        <v>3369.512880580587</v>
       </c>
       <c r="E91">
         <v>3220.535</v>
@@ -8698,37 +8698,37 @@
         <v>943.9</v>
       </c>
       <c r="M91">
-        <v>1068.048191186338</v>
+        <v>1025.751163686338</v>
       </c>
       <c r="N91">
-        <v>-124.1481911863376</v>
+        <v>-81.8511636863376</v>
       </c>
       <c r="O91">
-        <v>-27.31260206099428</v>
+        <v>-18.00725601099427</v>
       </c>
       <c r="P91">
-        <v>-96.83558912534333</v>
+        <v>-63.84390767534333</v>
       </c>
       <c r="Q91">
-        <v>407.1644108746568</v>
+        <v>440.1560923246568</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.3840125531083901</v>
+        <v>0.392644946328705</v>
       </c>
       <c r="T91">
-        <v>3.847675806282297</v>
+        <v>3.814476431953573</v>
       </c>
       <c r="U91">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V91">
-        <v>0.1944275564657277</v>
+        <v>0.2024448105461758</v>
       </c>
       <c r="W91">
-        <v>0.1322205500779267</v>
+        <v>0.1257205500779267</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.8837616202987624</v>
+        <v>0.9202036843007992</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.1614009945546141</v>
+        <v>0.1565655578088487</v>
       </c>
       <c r="C92">
-        <v>-2625.647786692856</v>
+        <v>-2534.276350570364</v>
       </c>
       <c r="D92">
-        <v>3244.202213307144</v>
+        <v>3335.573649429636</v>
       </c>
       <c r="E92">
         <v>3293.650000000001</v>
@@ -8780,37 +8780,37 @@
         <v>943.9</v>
       </c>
       <c r="M92">
-        <v>1080.048732660341</v>
+        <v>1037.276457660341</v>
       </c>
       <c r="N92">
-        <v>-136.1487326603414</v>
+        <v>-93.37645766034132</v>
       </c>
       <c r="O92">
-        <v>-29.9527211852751</v>
+        <v>-20.54282068527509</v>
       </c>
       <c r="P92">
-        <v>-106.1960114750663</v>
+        <v>-72.83363697506623</v>
       </c>
       <c r="Q92">
-        <v>397.8039885249339</v>
+        <v>431.1663630249339</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.4208338084192291</v>
+        <v>0.4309794409615755</v>
       </c>
       <c r="T92">
-        <v>4.232443386910528</v>
+        <v>4.19592407514893</v>
       </c>
       <c r="U92">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V92">
-        <v>0.1922672502827752</v>
+        <v>0.2001954237623294</v>
       </c>
       <c r="W92">
-        <v>0.1325751263474346</v>
+        <v>0.1260751263474346</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.8739420467398872</v>
+        <v>0.9099791989196793</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.1628843186979504</v>
+        <v>0.1580488819521851</v>
       </c>
       <c r="C93">
-        <v>-2731.480098174211</v>
+        <v>-2640.653697561758</v>
       </c>
       <c r="D93">
-        <v>3211.484901825789</v>
+        <v>3302.311302438242</v>
       </c>
       <c r="E93">
         <v>3366.765</v>
@@ -8862,37 +8862,37 @@
         <v>943.9</v>
       </c>
       <c r="M93">
-        <v>1092.049274134345</v>
+        <v>1048.801751634345</v>
       </c>
       <c r="N93">
-        <v>-148.1492741343453</v>
+        <v>-104.9017516343453</v>
       </c>
       <c r="O93">
-        <v>-32.59284030955597</v>
+        <v>-23.07838535955596</v>
       </c>
       <c r="P93">
-        <v>-115.5564338247894</v>
+        <v>-81.82336627478931</v>
       </c>
       <c r="Q93">
-        <v>388.4435661752108</v>
+        <v>422.1766337252108</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.4658375649102546</v>
+        <v>0.4778327121795284</v>
       </c>
       <c r="T93">
-        <v>4.70271487434503</v>
+        <v>4.66213786127659</v>
       </c>
       <c r="U93">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V93">
-        <v>0.1901544233565908</v>
+        <v>0.1979954740506555</v>
       </c>
       <c r="W93">
-        <v>0.1329219097318984</v>
+        <v>0.1264219097318984</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.8643382879845037</v>
+        <v>0.8999794275029793</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.1643676428412868</v>
+        <v>0.1595322060955214</v>
       </c>
       <c r="C94">
-        <v>-2836.659099458309</v>
+        <v>-2746.374210128115</v>
       </c>
       <c r="D94">
-        <v>3179.420900541691</v>
+        <v>3269.705789871884</v>
       </c>
       <c r="E94">
         <v>3439.88</v>
@@ -8944,37 +8944,37 @@
         <v>943.9</v>
       </c>
       <c r="M94">
-        <v>1104.049815608349</v>
+        <v>1060.327045608349</v>
       </c>
       <c r="N94">
-        <v>-160.1498156083491</v>
+        <v>-116.427045608349</v>
       </c>
       <c r="O94">
-        <v>-35.23295943383679</v>
+        <v>-25.61395003383678</v>
       </c>
       <c r="P94">
-        <v>-124.9168561745123</v>
+        <v>-90.8130955745122</v>
       </c>
       <c r="Q94">
-        <v>379.0831438254878</v>
+        <v>413.1869044254879</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.5220922605240367</v>
+        <v>0.5363993012019695</v>
       </c>
       <c r="T94">
-        <v>5.290554233638161</v>
+        <v>5.244905093936166</v>
       </c>
       <c r="U94">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V94">
-        <v>0.1880875274505409</v>
+        <v>0.1958433493327136</v>
       </c>
       <c r="W94">
-        <v>0.1332611543471346</v>
+        <v>0.1267611543471346</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.8549433065933678</v>
+        <v>0.8901970424214253</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.1658509669846231</v>
+        <v>0.1610155302388578</v>
       </c>
       <c r="C95">
-        <v>-2941.204165377745</v>
+        <v>-2851.457153898196</v>
       </c>
       <c r="D95">
-        <v>3147.990834622256</v>
+        <v>3237.737846101805</v>
       </c>
       <c r="E95">
         <v>3512.995000000001</v>
@@ -9026,37 +9026,37 @@
         <v>943.9</v>
       </c>
       <c r="M95">
-        <v>1116.050357082353</v>
+        <v>1071.852339582353</v>
       </c>
       <c r="N95">
-        <v>-172.1503570823528</v>
+        <v>-127.9523395823529</v>
       </c>
       <c r="O95">
-        <v>-37.87307855811762</v>
+        <v>-28.14951470811764</v>
       </c>
       <c r="P95">
-        <v>-134.2772785242352</v>
+        <v>-99.80282487423528</v>
       </c>
       <c r="Q95">
-        <v>369.722721475765</v>
+        <v>404.1971751257648</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.5944197263131848</v>
+        <v>0.6116992013736796</v>
       </c>
       <c r="T95">
-        <v>6.046347695586471</v>
+        <v>5.994177250212761</v>
       </c>
       <c r="U95">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V95">
-        <v>0.1860650809188147</v>
+        <v>0.1937375068667704</v>
       </c>
       <c r="W95">
-        <v>0.1335931033792476</v>
+        <v>0.1270931033792476</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.845750367812794</v>
+        <v>0.8806250312125926</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.1673342911279595</v>
+        <v>0.1624988543821941</v>
       </c>
       <c r="C96">
-        <v>-3045.133912147198</v>
+        <v>-2955.921048354908</v>
       </c>
       <c r="D96">
-        <v>3117.176087852802</v>
+        <v>3206.388951645092</v>
       </c>
       <c r="E96">
         <v>3586.110000000001</v>
@@ -9108,37 +9108,37 @@
         <v>943.9</v>
       </c>
       <c r="M96">
-        <v>1128.050898556357</v>
+        <v>1083.377633556357</v>
       </c>
       <c r="N96">
-        <v>-184.1508985563565</v>
+        <v>-139.4776335563566</v>
       </c>
       <c r="O96">
-        <v>-40.51319768239844</v>
+        <v>-30.68507938239846</v>
       </c>
       <c r="P96">
-        <v>-143.6377008739581</v>
+        <v>-108.7925541739582</v>
       </c>
       <c r="Q96">
-        <v>360.362299126042</v>
+        <v>395.2074458260419</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.6908563473653824</v>
+        <v>0.712099068269293</v>
       </c>
       <c r="T96">
-        <v>7.05407231151755</v>
+        <v>6.99320679191489</v>
       </c>
       <c r="U96">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V96">
-        <v>0.1840856651643592</v>
+        <v>0.1916764695596771</v>
       </c>
       <c r="W96">
-        <v>0.1339179896659964</v>
+        <v>0.1274179896659964</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.8367530234743601</v>
+        <v>0.8712566798167141</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1688176152712959</v>
+        <v>0.1639821785255305</v>
       </c>
       <c r="C97">
-        <v>-3148.466234132938</v>
+        <v>-3059.783702611129</v>
       </c>
       <c r="D97">
-        <v>3086.958765867062</v>
+        <v>3175.641297388871</v>
       </c>
       <c r="E97">
         <v>3659.225</v>
@@ -9190,37 +9190,37 @@
         <v>943.9</v>
       </c>
       <c r="M97">
-        <v>1140.05144003036</v>
+        <v>1094.90292753036</v>
       </c>
       <c r="N97">
-        <v>-196.1514400303603</v>
+        <v>-151.0029275303604</v>
       </c>
       <c r="O97">
-        <v>-43.15331680667926</v>
+        <v>-33.22064405667928</v>
       </c>
       <c r="P97">
-        <v>-152.998123223681</v>
+        <v>-117.7822834736811</v>
       </c>
       <c r="Q97">
-        <v>351.0018767763191</v>
+        <v>386.217716526319</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>0.8258676168384592</v>
+        <v>0.852658881923152</v>
       </c>
       <c r="T97">
-        <v>8.464886773821064</v>
+        <v>8.391848150297871</v>
       </c>
       <c r="U97">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V97">
-        <v>0.1821479213205239</v>
+        <v>0.1896588225116805</v>
       </c>
       <c r="W97">
-        <v>0.1342360362414452</v>
+        <v>0.1277360362414452</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.8279450969114721</v>
+        <v>0.8620855568712751</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1703009394146322</v>
+        <v>0.1654655026688668</v>
       </c>
       <c r="C98">
-        <v>-3251.218338504232</v>
+        <v>-3163.062249146634</v>
       </c>
       <c r="D98">
-        <v>3057.321661495768</v>
+        <v>3145.477750853366</v>
       </c>
       <c r="E98">
         <v>3732.34</v>
@@ -9272,37 +9272,37 @@
         <v>943.9</v>
       </c>
       <c r="M98">
-        <v>1152.051981504364</v>
+        <v>1106.428221504364</v>
       </c>
       <c r="N98">
-        <v>-208.1519815043642</v>
+        <v>-162.5282215043641</v>
       </c>
       <c r="O98">
-        <v>-45.79343593096014</v>
+        <v>-35.7562087309601</v>
       </c>
       <c r="P98">
-        <v>-162.3585455734041</v>
+        <v>-126.772012773404</v>
       </c>
       <c r="Q98">
-        <v>341.641454426596</v>
+        <v>377.2279872265962</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.028384521048072</v>
+        <v>1.063498602403938</v>
       </c>
       <c r="T98">
-        <v>10.58110846727631</v>
+        <v>10.48981018787232</v>
       </c>
       <c r="U98">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V98">
-        <v>0.1802505471401017</v>
+        <v>0.1876832097771839</v>
       </c>
       <c r="W98">
-        <v>0.1345474568465722</v>
+        <v>0.1280474568465722</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.8193206688186442</v>
+        <v>0.8531054989871993</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1717842635579686</v>
+        <v>0.1669488268122032</v>
       </c>
       <c r="C99">
-        <v>-3353.406777907666</v>
+        <v>-3265.773175640437</v>
       </c>
       <c r="D99">
-        <v>3028.248222092333</v>
+        <v>3115.881824359562</v>
       </c>
       <c r="E99">
         <v>3805.455</v>
@@ -9354,37 +9354,37 @@
         <v>943.9</v>
       </c>
       <c r="M99">
-        <v>1164.052522978368</v>
+        <v>1117.953515478368</v>
       </c>
       <c r="N99">
-        <v>-220.152522978368</v>
+        <v>-174.0535154783678</v>
       </c>
       <c r="O99">
-        <v>-48.43355505524096</v>
+        <v>-38.29177340524091</v>
       </c>
       <c r="P99">
-        <v>-171.718967923127</v>
+        <v>-135.7617420731269</v>
       </c>
       <c r="Q99">
-        <v>332.2810320768731</v>
+        <v>368.2382579268732</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.365912694730762</v>
+        <v>1.414898136538584</v>
       </c>
       <c r="T99">
-        <v>14.10814462303508</v>
+        <v>13.98641358382976</v>
       </c>
       <c r="U99">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V99">
-        <v>0.1783922940768017</v>
+        <v>0.1857483313258727</v>
       </c>
       <c r="W99">
-        <v>0.1348524564082945</v>
+        <v>0.1283524564082945</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.8108740639854624</v>
+        <v>0.8443105969357849</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1732675877013049</v>
+        <v>0.1684321509555395</v>
       </c>
       <c r="C100">
-        <v>-3455.047481294736</v>
+        <v>-3367.932355022808</v>
       </c>
       <c r="D100">
-        <v>2999.722518705263</v>
+        <v>3086.837644977191</v>
       </c>
       <c r="E100">
         <v>3878.57</v>
@@ -9436,37 +9436,37 @@
         <v>943.9</v>
       </c>
       <c r="M100">
-        <v>1176.053064452372</v>
+        <v>1129.478809452372</v>
       </c>
       <c r="N100">
-        <v>-232.1530644523717</v>
+        <v>-185.5788094523717</v>
       </c>
       <c r="O100">
-        <v>-51.07367417952178</v>
+        <v>-40.82733807952178</v>
       </c>
       <c r="P100">
-        <v>-181.0793902728499</v>
+        <v>-144.7514713728499</v>
       </c>
       <c r="Q100">
-        <v>322.9206097271502</v>
+        <v>359.2485286271502</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.040969042096143</v>
+        <v>2.117697204807875</v>
       </c>
       <c r="T100">
-        <v>21.16221693455261</v>
+        <v>20.97962037574463</v>
       </c>
       <c r="U100">
-        <v>0.164132414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V100">
-        <v>0.1765719645454058</v>
+        <v>0.1838529401898944</v>
       </c>
       <c r="W100">
-        <v>0.1351512314891653</v>
+        <v>0.1286512314891653</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.8025998388427535</v>
+        <v>0.835695182681338</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2069926514933162</v>
+        <v>0.1699154750988759</v>
       </c>
       <c r="C101">
-        <v>-4057.292824493122</v>
+        <v>-3469.555073862078</v>
       </c>
       <c r="D101">
-        <v>2470.592175506878</v>
+        <v>3058.329926137922</v>
       </c>
       <c r="E101">
         <v>3951.685</v>
@@ -9518,45 +9518,45 @@
         <v>943.9</v>
       </c>
       <c r="M101">
-        <v>1413.891217926375</v>
+        <v>1141.004103426375</v>
       </c>
       <c r="N101">
-        <v>-469.9912179263755</v>
+        <v>-197.1041034263754</v>
       </c>
       <c r="O101">
-        <v>-103.3980679438026</v>
+        <v>-43.3629027538026</v>
       </c>
       <c r="P101">
-        <v>-366.5931499825729</v>
+        <v>-153.7412006725729</v>
       </c>
       <c r="Q101">
-        <v>137.4068500174272</v>
+        <v>350.2587993274273</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>4.201512049059773</v>
+        <v>4.22609440961575</v>
       </c>
       <c r="T101">
-        <v>43.73903835508485</v>
+        <v>41.95924075148926</v>
       </c>
       <c r="U101">
-        <v>0.195332414333636</v>
+        <v>0.157632414333636</v>
       </c>
       <c r="V101">
-        <v>0.1468698562995199</v>
+        <v>0.1819958397839359</v>
       </c>
       <c r="W101">
-        <v>0.1666439707098166</v>
+        <v>0.1289439707098166</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y101">
-        <v>0.6675902559069088</v>
+        <v>0.8272538171997084</v>
       </c>
       <c r="Z101">
         <v>0</v>
